--- a/Document Library/Bill Of Materials/Valkyrie BOM Beta 07.xlsx
+++ b/Document Library/Bill Of Materials/Valkyrie BOM Beta 07.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/Document Library/Bill Of Materials/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_90E8A2594C63906364F20E90CDD1628CCD4781EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16A4D0A4-9419-4031-AEDA-6F9C83E6023C}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="13284"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Valkyrie Final Stage" sheetId="1" r:id="rId1"/>
@@ -12,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Valkyrie Final Stage'!$A$9:$N$112</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,13 +38,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
     <author>Roy Berntsen</author>
   </authors>
   <commentList>
-    <comment ref="G9" authorId="0">
+    <comment ref="G9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -53,7 +59,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H9" authorId="0">
+    <comment ref="H9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -68,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I9" authorId="0">
+    <comment ref="I9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -83,7 +89,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E10" authorId="0">
+    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -95,7 +101,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P10" authorId="1">
+    <comment ref="P10" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -119,7 +125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P11" authorId="1">
+    <comment ref="P11" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -143,7 +149,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P12" authorId="1">
+    <comment ref="P12" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -167,7 +173,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P13" authorId="1">
+    <comment ref="P13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -191,7 +197,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P14" authorId="1">
+    <comment ref="P14" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -215,7 +221,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O15" authorId="1">
+    <comment ref="O15" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -239,7 +245,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D54" authorId="0">
+    <comment ref="D54" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -274,7 +280,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P57" authorId="0">
+    <comment ref="P57" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -287,7 +293,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K72" authorId="0">
+    <comment ref="K72" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -303,7 +309,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K82" authorId="1">
+    <comment ref="K82" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -327,7 +333,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P84" authorId="0">
+    <comment ref="P84" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -340,7 +346,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P85" authorId="0">
+    <comment ref="P85" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -353,7 +359,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P86" authorId="0">
+    <comment ref="P86" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -366,7 +372,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P87" authorId="0">
+    <comment ref="P87" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <r>
           <rPr>
@@ -379,7 +385,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P88" authorId="0">
+    <comment ref="P88" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
         <r>
           <rPr>
@@ -392,7 +398,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P92" authorId="0">
+    <comment ref="P92" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
         <r>
           <rPr>
@@ -405,7 +411,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P93" authorId="0">
+    <comment ref="P93" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
       <text>
         <r>
           <rPr>
@@ -418,7 +424,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P94" authorId="0">
+    <comment ref="P94" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
       <text>
         <r>
           <rPr>
@@ -431,7 +437,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P97" authorId="0">
+    <comment ref="P97" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
       <text>
         <r>
           <rPr>
@@ -444,7 +450,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P98" authorId="0">
+    <comment ref="P98" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
       <text>
         <r>
           <rPr>
@@ -457,7 +463,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P99" authorId="0">
+    <comment ref="P99" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
       <text>
         <r>
           <rPr>
@@ -470,7 +476,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P100" authorId="0">
+    <comment ref="P100" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -483,7 +489,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P101" authorId="0">
+    <comment ref="P101" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -496,7 +502,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P102" authorId="0">
+    <comment ref="P102" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -509,7 +515,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P103" authorId="0">
+    <comment ref="P103" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -522,7 +528,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P105" authorId="0">
+    <comment ref="P105" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E000000}">
       <text>
         <r>
           <rPr>
@@ -667,12 +673,6 @@
     <t>Frame Bundle</t>
   </si>
   <si>
-    <t>2040 Frame Kit - Ask for bundle price</t>
-  </si>
-  <si>
-    <t>Ask for Precision Cut Frame Bundle</t>
-  </si>
-  <si>
     <t>Tube</t>
   </si>
   <si>
@@ -1524,19 +1524,25 @@
   <si>
     <t>item nr. 137-2111</t>
   </si>
+  <si>
+    <t>Frame + Rail Bundle Kit</t>
+  </si>
+  <si>
+    <t>2040 Frame Kit</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="165" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-    <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0.0_ ;_-[$$-409]* \-#,##0.0\ ;_-[$$-409]* &quot;-&quot;?_ ;_-@_ "/>
-    <numFmt numFmtId="167" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;_ ;_-@_ "/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="166" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+    <numFmt numFmtId="167" formatCode="_-[$$-409]* #,##0.0_ ;_-[$$-409]* \-#,##0.0\ ;_-[$$-409]* &quot;-&quot;?_ ;_-@_ "/>
+    <numFmt numFmtId="168" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;_ ;_-@_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1557,13 +1563,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -1889,7 +1888,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1899,27 +1898,27 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1937,20 +1936,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1959,52 +1958,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="18" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="17" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2023,11 +2022,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2036,28 +2032,31 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2125,7 +2124,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="165" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <numFmt numFmtId="166" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2184,7 +2183,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2310,7 +2309,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
+      <xdr:colOff>647700</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>295275</xdr:rowOff>
     </xdr:from>
@@ -2320,7 +2319,7 @@
         <xdr:cNvPr id="2" name="image1.png" title="Image">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2334,7 +2333,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6943725" y="295275"/>
+          <a:off x="6915150" y="295275"/>
           <a:ext cx="2186940" cy="1171575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2349,25 +2348,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A9:P111" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16">
-  <autoFilter ref="A9:P111"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A9:P111" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16">
+  <autoFilter ref="A9:P111" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="16">
-    <tableColumn id="1" name="System" dataDxfId="15"/>
-    <tableColumn id="2" name="Category" dataDxfId="14"/>
-    <tableColumn id="3" name="Part Type" dataDxfId="13"/>
-    <tableColumn id="4" name="Description" dataDxfId="12"/>
-    <tableColumn id="5" name="Cut Length mm" dataDxfId="11"/>
-    <tableColumn id="6" name="Total mm" dataDxfId="10"/>
-    <tableColumn id="7" name="BOM Quantity" dataDxfId="9"/>
-    <tableColumn id="8" name="Pack Price $" dataDxfId="8"/>
-    <tableColumn id="9" name="Pack Order Quantity" dataDxfId="7"/>
-    <tableColumn id="10" name="Line Price $" dataDxfId="6"/>
-    <tableColumn id="11" name="Order Parts Link" dataDxfId="5"/>
-    <tableColumn id="12" name="Supplier" dataDxfId="4"/>
-    <tableColumn id="13" name="DIN" dataDxfId="3"/>
-    <tableColumn id="14" name="ISO" dataDxfId="2"/>
-    <tableColumn id="15" name="Option" dataDxfId="1"/>
-    <tableColumn id="16" name="Note" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="System" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Category" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Part Type" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Description" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Cut Length mm" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Total mm" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="BOM Quantity" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Pack Price $" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Pack Order Quantity" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Line Price $" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Order Parts Link" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Supplier" dataDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="DIN" dataDxfId="3"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="ISO" dataDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Option" dataDxfId="1"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Note" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2570,62 +2569,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Z112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K52" sqref="K52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="A1:P6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" customWidth="1"/>
-    <col min="4" max="4" width="33.109375" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="26" width="8.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="24.6">
-      <c r="A1" s="98" t="s">
+    <row r="1" spans="1:26" ht="26.25">
+      <c r="A1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="98"/>
-      <c r="P1" s="98"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="1"/>
       <c r="B2" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -2644,18 +2643,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="15" thickBot="1">
+    <row r="7" spans="1:26" ht="15.75" thickBot="1">
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:26" s="14" customFormat="1" ht="16.2" thickBot="1">
+    <row r="8" spans="1:26" s="14" customFormat="1" ht="16.5" thickBot="1">
       <c r="A8" s="6"/>
       <c r="B8" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>6</v>
@@ -2787,8 +2786,8 @@
       <c r="M10" s="73"/>
       <c r="N10" s="74"/>
       <c r="O10" s="53"/>
-      <c r="P10" s="86" t="s">
-        <v>297</v>
+      <c r="P10" s="85" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -2834,8 +2833,8 @@
       <c r="M11" s="34"/>
       <c r="N11" s="75"/>
       <c r="O11" s="54"/>
-      <c r="P11" s="86" t="s">
-        <v>297</v>
+      <c r="P11" s="85" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -2880,8 +2879,8 @@
       <c r="M12" s="34"/>
       <c r="N12" s="75"/>
       <c r="O12" s="54"/>
-      <c r="P12" s="86" t="s">
-        <v>297</v>
+      <c r="P12" s="85" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="13" spans="1:26">
@@ -2926,8 +2925,8 @@
       <c r="M13" s="34"/>
       <c r="N13" s="75"/>
       <c r="O13" s="54"/>
-      <c r="P13" s="86" t="s">
-        <v>297</v>
+      <c r="P13" s="85" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -2972,8 +2971,8 @@
       <c r="M14" s="34"/>
       <c r="N14" s="75"/>
       <c r="O14" s="54"/>
-      <c r="P14" s="86" t="s">
-        <v>297</v>
+      <c r="P14" s="85" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -3005,7 +3004,7 @@
         <v>25</v>
       </c>
       <c r="K15" s="36" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="L15" s="33" t="s">
         <v>28</v>
@@ -3013,22 +3012,22 @@
       <c r="M15" s="34"/>
       <c r="N15" s="75"/>
       <c r="O15" s="62" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="P15" s="35"/>
     </row>
     <row r="16" spans="1:26">
       <c r="A16" s="26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E16" s="27">
         <v>350</v>
@@ -3048,10 +3047,10 @@
         <v>46.8</v>
       </c>
       <c r="K16" s="32" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L16" s="33" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M16" s="34"/>
       <c r="N16" s="75"/>
@@ -3060,16 +3059,16 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E17" s="27">
         <v>400</v>
@@ -3089,10 +3088,10 @@
         <v>35</v>
       </c>
       <c r="K17" s="36" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L17" s="33" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M17" s="40"/>
       <c r="N17" s="76"/>
@@ -3101,16 +3100,16 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E18" s="27">
         <v>400</v>
@@ -3130,17 +3129,17 @@
         <v>16</v>
       </c>
       <c r="K18" s="36" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L18" s="33" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M18" s="34"/>
       <c r="N18" s="75"/>
       <c r="O18" s="56"/>
       <c r="P18" s="35"/>
     </row>
-    <row r="19" spans="1:16" ht="15" thickBot="1">
+    <row r="19" spans="1:16" ht="15.75" thickBot="1">
       <c r="A19" s="77" t="s">
         <v>23</v>
       </c>
@@ -3151,7 +3150,7 @@
         <v>39</v>
       </c>
       <c r="D19" s="79" t="s">
-        <v>40</v>
+        <v>314</v>
       </c>
       <c r="E19" s="78"/>
       <c r="F19" s="78"/>
@@ -3167,14 +3166,14 @@
       <c r="J19" s="81">
         <v>265.60000000000002</v>
       </c>
-      <c r="K19" s="82" t="s">
-        <v>41</v>
-      </c>
-      <c r="L19" s="83" t="s">
-        <v>308</v>
-      </c>
-      <c r="M19" s="84"/>
-      <c r="N19" s="85"/>
+      <c r="K19" s="98" t="s">
+        <v>313</v>
+      </c>
+      <c r="L19" s="82" t="s">
+        <v>306</v>
+      </c>
+      <c r="M19" s="83"/>
+      <c r="N19" s="84"/>
       <c r="O19" s="54"/>
       <c r="P19" s="35"/>
     </row>
@@ -3186,10 +3185,10 @@
         <v>24</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E20" s="27">
         <v>410</v>
@@ -3211,10 +3210,10 @@
         <v>20</v>
       </c>
       <c r="K20" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L20" s="33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M20" s="34"/>
       <c r="N20" s="34"/>
@@ -3223,16 +3222,16 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B21" s="27" t="s">
         <v>24</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E21" s="27">
         <v>350</v>
@@ -3252,10 +3251,10 @@
         <v>98</v>
       </c>
       <c r="K21" s="36" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L21" s="33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M21" s="34"/>
       <c r="N21" s="34"/>
@@ -3264,16 +3263,16 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B22" s="27" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E22" s="27">
         <v>310</v>
@@ -3293,10 +3292,10 @@
         <v>40</v>
       </c>
       <c r="K22" s="32" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L22" s="33" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M22" s="34"/>
       <c r="N22" s="34"/>
@@ -3305,16 +3304,16 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B23" s="27" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E23" s="27">
         <v>25</v>
@@ -3334,10 +3333,10 @@
         <v>1.2</v>
       </c>
       <c r="K23" s="36" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L23" s="33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M23" s="34"/>
       <c r="N23" s="34"/>
@@ -3346,16 +3345,16 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B24" s="27" t="s">
         <v>24</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E24" s="27">
         <v>40</v>
@@ -3375,10 +3374,10 @@
         <v>9</v>
       </c>
       <c r="K24" s="32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L24" s="33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M24" s="34"/>
       <c r="N24" s="34"/>
@@ -3387,16 +3386,16 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B25" s="27" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E25" s="27">
         <v>50</v>
@@ -3416,10 +3415,10 @@
         <v>6</v>
       </c>
       <c r="K25" s="36" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L25" s="33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M25" s="34"/>
       <c r="N25" s="34"/>
@@ -3428,16 +3427,16 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B26" s="27" t="s">
         <v>24</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E26" s="27"/>
       <c r="F26" s="30"/>
@@ -3455,10 +3454,10 @@
         <v>3</v>
       </c>
       <c r="K26" s="32" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L26" s="33" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M26" s="34"/>
       <c r="N26" s="34"/>
@@ -3467,16 +3466,16 @@
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B27" s="27" t="s">
         <v>24</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E27" s="27">
         <v>30</v>
@@ -3496,10 +3495,10 @@
         <v>5</v>
       </c>
       <c r="K27" s="36" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L27" s="33" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M27" s="34"/>
       <c r="N27" s="34"/>
@@ -3508,16 +3507,16 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B28" s="27" t="s">
         <v>24</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E28" s="27"/>
       <c r="F28" s="30"/>
@@ -3535,10 +3534,10 @@
         <v>7.5</v>
       </c>
       <c r="K28" s="32" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L28" s="33" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M28" s="34"/>
       <c r="N28" s="34"/>
@@ -3550,13 +3549,13 @@
         <v>23</v>
       </c>
       <c r="B29" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="27" t="s">
         <v>76</v>
-      </c>
-      <c r="C29" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="D29" s="27" t="s">
-        <v>78</v>
       </c>
       <c r="E29" s="27"/>
       <c r="F29" s="30"/>
@@ -3574,10 +3573,10 @@
         <v>1</v>
       </c>
       <c r="K29" s="36" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L29" s="33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M29" s="40">
         <v>934</v>
@@ -3593,13 +3592,13 @@
         <v>23</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E30" s="27"/>
       <c r="F30" s="30"/>
@@ -3617,10 +3616,10 @@
         <v>3</v>
       </c>
       <c r="K30" s="36" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="L30" s="33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M30" s="34"/>
       <c r="N30" s="34"/>
@@ -3632,13 +3631,13 @@
         <v>23</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E31" s="27"/>
       <c r="F31" s="30"/>
@@ -3656,10 +3655,10 @@
         <v>1</v>
       </c>
       <c r="K31" s="36" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L31" s="33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M31" s="40"/>
       <c r="N31" s="40">
@@ -3673,13 +3672,13 @@
         <v>23</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E32" s="27"/>
       <c r="F32" s="30"/>
@@ -3697,10 +3696,10 @@
         <v>1</v>
       </c>
       <c r="K32" s="32" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L32" s="33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M32" s="34">
         <v>912</v>
@@ -3714,13 +3713,13 @@
         <v>23</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D33" s="27" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E33" s="27"/>
       <c r="F33" s="30"/>
@@ -3738,10 +3737,10 @@
         <v>1</v>
       </c>
       <c r="K33" s="36" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L33" s="33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M33" s="40"/>
       <c r="N33" s="40">
@@ -3755,13 +3754,13 @@
         <v>23</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D34" s="38" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E34" s="27"/>
       <c r="F34" s="30"/>
@@ -3779,10 +3778,10 @@
         <v>2</v>
       </c>
       <c r="K34" s="32" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L34" s="33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M34" s="34"/>
       <c r="N34" s="34">
@@ -3796,13 +3795,13 @@
         <v>23</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D35" s="27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E35" s="27"/>
       <c r="F35" s="30"/>
@@ -3820,10 +3819,10 @@
         <v>12</v>
       </c>
       <c r="K35" s="36" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L35" s="33" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M35" s="40"/>
       <c r="N35" s="40"/>
@@ -3835,13 +3834,13 @@
         <v>23</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C36" s="27" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D36" s="27" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E36" s="27"/>
       <c r="F36" s="30"/>
@@ -3859,10 +3858,10 @@
         <v>1.5</v>
       </c>
       <c r="K36" s="36" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L36" s="33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M36" s="34">
         <v>934</v>
@@ -3878,13 +3877,13 @@
         <v>23</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D37" s="27" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E37" s="27"/>
       <c r="F37" s="30"/>
@@ -3902,10 +3901,10 @@
         <v>1.5</v>
       </c>
       <c r="K37" s="36" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L37" s="33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M37" s="40">
         <v>985</v>
@@ -3921,13 +3920,13 @@
         <v>23</v>
       </c>
       <c r="B38" s="27" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D38" s="27" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E38" s="27"/>
       <c r="F38" s="30"/>
@@ -3945,10 +3944,10 @@
         <v>1</v>
       </c>
       <c r="K38" s="32" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L38" s="33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M38" s="34">
         <v>125</v>
@@ -3964,13 +3963,13 @@
         <v>23</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C39" s="27" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D39" s="38" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E39" s="27"/>
       <c r="F39" s="30"/>
@@ -3988,10 +3987,10 @@
         <v>2</v>
       </c>
       <c r="K39" s="36" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L39" s="33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M39" s="40"/>
       <c r="N39" s="40">
@@ -4005,13 +4004,13 @@
         <v>23</v>
       </c>
       <c r="B40" s="27" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C40" s="27" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E40" s="27"/>
       <c r="F40" s="30"/>
@@ -4029,10 +4028,10 @@
         <v>2</v>
       </c>
       <c r="K40" s="32" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L40" s="33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M40" s="34"/>
       <c r="N40" s="34">
@@ -4046,13 +4045,13 @@
         <v>23</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C41" s="27" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D41" s="27" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E41" s="27"/>
       <c r="F41" s="30"/>
@@ -4070,10 +4069,10 @@
         <v>2</v>
       </c>
       <c r="K41" s="36" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L41" s="33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M41" s="40">
         <v>934</v>
@@ -4089,13 +4088,13 @@
         <v>23</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C42" s="27" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D42" s="27" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E42" s="27"/>
       <c r="F42" s="30"/>
@@ -4113,10 +4112,10 @@
         <v>11</v>
       </c>
       <c r="K42" s="36" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L42" s="33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M42" s="34"/>
       <c r="N42" s="34"/>
@@ -4128,13 +4127,13 @@
         <v>23</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C43" s="27" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D43" s="27" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E43" s="27"/>
       <c r="F43" s="30"/>
@@ -4152,10 +4151,10 @@
         <v>2.81</v>
       </c>
       <c r="K43" s="36" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L43" s="33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M43" s="40">
         <v>985</v>
@@ -4171,13 +4170,13 @@
         <v>23</v>
       </c>
       <c r="B44" s="27" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C44" s="27" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D44" s="27" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E44" s="27"/>
       <c r="F44" s="30"/>
@@ -4195,10 +4194,10 @@
         <v>13.5</v>
       </c>
       <c r="K44" s="32" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L44" s="33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M44" s="34"/>
       <c r="N44" s="34"/>
@@ -4210,13 +4209,13 @@
         <v>23</v>
       </c>
       <c r="B45" s="27" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C45" s="27" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D45" s="27" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E45" s="27"/>
       <c r="F45" s="30"/>
@@ -4234,10 +4233,10 @@
         <v>2.56</v>
       </c>
       <c r="K45" s="36" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L45" s="33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M45" s="40">
         <v>125</v>
@@ -4253,13 +4252,13 @@
         <v>23</v>
       </c>
       <c r="B46" s="27" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C46" s="27" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D46" s="27" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E46" s="27"/>
       <c r="F46" s="30"/>
@@ -4277,10 +4276,10 @@
         <v>32.28</v>
       </c>
       <c r="K46" s="32" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L46" s="33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M46" s="34"/>
       <c r="N46" s="34">
@@ -4294,13 +4293,13 @@
         <v>23</v>
       </c>
       <c r="B47" s="27" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C47" s="27" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D47" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E47" s="27"/>
       <c r="F47" s="30"/>
@@ -4318,10 +4317,10 @@
         <v>8</v>
       </c>
       <c r="K47" s="36" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L47" s="33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M47" s="40"/>
       <c r="N47" s="40">
@@ -4335,13 +4334,13 @@
         <v>23</v>
       </c>
       <c r="B48" s="27" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C48" s="27" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D48" s="27" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E48" s="27"/>
       <c r="F48" s="30"/>
@@ -4359,10 +4358,10 @@
         <v>2.57</v>
       </c>
       <c r="K48" s="36" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L48" s="33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M48" s="34">
         <v>933</v>
@@ -4378,13 +4377,13 @@
         <v>23</v>
       </c>
       <c r="B49" s="43" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C49" s="43" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D49" s="38" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E49" s="27"/>
       <c r="F49" s="30"/>
@@ -4402,35 +4401,35 @@
         <v>16</v>
       </c>
       <c r="K49" s="36" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="L49" s="33" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="M49" s="40"/>
       <c r="N49" s="40"/>
       <c r="O49" s="54"/>
       <c r="P49" s="35"/>
     </row>
-    <row r="50" spans="1:16" s="89" customFormat="1">
-      <c r="A50" s="87" t="s">
-        <v>205</v>
-      </c>
-      <c r="B50" s="88" t="s">
-        <v>76</v>
-      </c>
-      <c r="C50" s="88" t="s">
-        <v>96</v>
-      </c>
-      <c r="D50" s="89" t="s">
-        <v>307</v>
-      </c>
-      <c r="F50" s="90"/>
-      <c r="G50" s="90"/>
-      <c r="H50" s="91">
+    <row r="50" spans="1:16" s="88" customFormat="1">
+      <c r="A50" s="86" t="s">
+        <v>203</v>
+      </c>
+      <c r="B50" s="87" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50" s="87" t="s">
+        <v>94</v>
+      </c>
+      <c r="D50" s="88" t="s">
+        <v>305</v>
+      </c>
+      <c r="F50" s="89"/>
+      <c r="G50" s="89"/>
+      <c r="H50" s="90">
         <v>8</v>
       </c>
-      <c r="I50" s="90">
+      <c r="I50" s="89">
         <v>1</v>
       </c>
       <c r="J50" s="31">
@@ -4438,66 +4437,66 @@
         <v>8</v>
       </c>
       <c r="K50" s="36" t="s">
-        <v>306</v>
-      </c>
-      <c r="L50" s="93" t="s">
-        <v>59</v>
-      </c>
-      <c r="M50" s="94"/>
-      <c r="N50" s="94"/>
-      <c r="O50" s="95"/>
-      <c r="P50" s="96"/>
-    </row>
-    <row r="51" spans="1:16" s="89" customFormat="1">
-      <c r="A51" s="87" t="s">
+        <v>304</v>
+      </c>
+      <c r="L50" s="92" t="s">
+        <v>57</v>
+      </c>
+      <c r="M50" s="93"/>
+      <c r="N50" s="93"/>
+      <c r="O50" s="94"/>
+      <c r="P50" s="95"/>
+    </row>
+    <row r="51" spans="1:16" s="88" customFormat="1">
+      <c r="A51" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="B51" s="88" t="s">
-        <v>76</v>
-      </c>
-      <c r="C51" s="89" t="s">
-        <v>96</v>
-      </c>
-      <c r="D51" s="89" t="s">
-        <v>303</v>
-      </c>
-      <c r="F51" s="90"/>
-      <c r="G51" s="90"/>
-      <c r="H51" s="91">
+      <c r="B51" s="87" t="s">
+        <v>74</v>
+      </c>
+      <c r="C51" s="88" t="s">
+        <v>94</v>
+      </c>
+      <c r="D51" s="88" t="s">
+        <v>301</v>
+      </c>
+      <c r="F51" s="89"/>
+      <c r="G51" s="89"/>
+      <c r="H51" s="90">
         <v>0.74</v>
       </c>
-      <c r="I51" s="90">
+      <c r="I51" s="89">
         <v>1</v>
       </c>
       <c r="J51" s="31">
         <f t="shared" si="1"/>
         <v>0.74</v>
       </c>
-      <c r="K51" s="92" t="s">
-        <v>305</v>
-      </c>
-      <c r="L51" s="93" t="s">
-        <v>59</v>
-      </c>
-      <c r="M51" s="97" t="s">
-        <v>304</v>
-      </c>
-      <c r="N51" s="94"/>
-      <c r="O51" s="95"/>
-      <c r="P51" s="96"/>
+      <c r="K51" s="91" t="s">
+        <v>303</v>
+      </c>
+      <c r="L51" s="92" t="s">
+        <v>57</v>
+      </c>
+      <c r="M51" s="96" t="s">
+        <v>302</v>
+      </c>
+      <c r="N51" s="93"/>
+      <c r="O51" s="94"/>
+      <c r="P51" s="95"/>
     </row>
     <row r="52" spans="1:16">
       <c r="A52" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="B52" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="C52" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="B52" s="38" t="s">
+      <c r="D52" s="38" t="s">
         <v>122</v>
-      </c>
-      <c r="C52" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="D52" s="38" t="s">
-        <v>124</v>
       </c>
       <c r="E52" s="27"/>
       <c r="F52" s="30"/>
@@ -4515,10 +4514,10 @@
         <v>12</v>
       </c>
       <c r="K52" s="36" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="L52" s="33" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M52" s="34"/>
       <c r="N52" s="34"/>
@@ -4527,16 +4526,16 @@
     </row>
     <row r="53" spans="1:16">
       <c r="A53" s="26" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B53" s="38" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C53" s="38" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D53" s="38" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E53" s="27"/>
       <c r="F53" s="30"/>
@@ -4554,10 +4553,10 @@
         <v>0</v>
       </c>
       <c r="K53" s="36" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L53" s="33" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M53" s="40"/>
       <c r="N53" s="40"/>
@@ -4566,16 +4565,16 @@
     </row>
     <row r="54" spans="1:16">
       <c r="A54" s="26" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B54" s="38" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C54" s="38" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D54" s="38" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E54" s="27"/>
       <c r="F54" s="30"/>
@@ -4593,10 +4592,10 @@
         <v>71</v>
       </c>
       <c r="K54" s="32" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L54" s="33" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M54" s="34"/>
       <c r="N54" s="34"/>
@@ -4605,16 +4604,16 @@
     </row>
     <row r="55" spans="1:16">
       <c r="A55" s="26" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B55" s="38" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C55" s="38" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D55" s="38" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E55" s="27"/>
       <c r="F55" s="30"/>
@@ -4632,10 +4631,10 @@
         <v>23</v>
       </c>
       <c r="K55" s="36" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L55" s="33" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="M55" s="40"/>
       <c r="N55" s="40"/>
@@ -4644,16 +4643,16 @@
     </row>
     <row r="56" spans="1:16">
       <c r="A56" s="26" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B56" s="38" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C56" s="38" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D56" s="38" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E56" s="27"/>
       <c r="F56" s="30"/>
@@ -4671,10 +4670,10 @@
         <v>7.5</v>
       </c>
       <c r="K56" s="36" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L56" s="33" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M56" s="34"/>
       <c r="N56" s="34"/>
@@ -4683,16 +4682,16 @@
     </row>
     <row r="57" spans="1:16">
       <c r="A57" s="26" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B57" s="38" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C57" s="38" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D57" s="38" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E57" s="27">
         <v>310</v>
@@ -4712,10 +4711,10 @@
         <v>28</v>
       </c>
       <c r="K57" s="36" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="L57" s="33" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M57" s="40"/>
       <c r="N57" s="40"/>
@@ -4726,16 +4725,16 @@
     </row>
     <row r="58" spans="1:16">
       <c r="A58" s="26" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B58" s="38" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C58" s="38" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D58" s="38" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E58" s="27"/>
       <c r="F58" s="30"/>
@@ -4753,30 +4752,30 @@
         <v>78</v>
       </c>
       <c r="K58" s="36" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="L58" s="33" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M58" s="34"/>
       <c r="N58" s="34"/>
       <c r="O58" s="55" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="P58" s="44"/>
     </row>
     <row r="59" spans="1:16">
       <c r="A59" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="B59" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="C59" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="D59" s="38" t="s">
         <v>145</v>
-      </c>
-      <c r="B59" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="C59" s="38" t="s">
-        <v>146</v>
-      </c>
-      <c r="D59" s="38" t="s">
-        <v>147</v>
       </c>
       <c r="E59" s="27"/>
       <c r="F59" s="30"/>
@@ -4794,10 +4793,10 @@
         <v>20</v>
       </c>
       <c r="K59" s="36" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L59" s="33" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M59" s="40"/>
       <c r="N59" s="40"/>
@@ -4806,16 +4805,16 @@
     </row>
     <row r="60" spans="1:16" s="4" customFormat="1">
       <c r="A60" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B60" s="38" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C60" s="38" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D60" s="38" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E60" s="27"/>
       <c r="F60" s="30"/>
@@ -4833,7 +4832,7 @@
         <v>2</v>
       </c>
       <c r="K60" s="32" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="L60" s="33"/>
       <c r="M60" s="40"/>
@@ -4843,16 +4842,16 @@
     </row>
     <row r="61" spans="1:16" s="4" customFormat="1">
       <c r="A61" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B61" s="38" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C61" s="38" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D61" s="38" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E61" s="27"/>
       <c r="F61" s="30"/>
@@ -4870,7 +4869,7 @@
         <v>0</v>
       </c>
       <c r="K61" s="32" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="L61" s="33"/>
       <c r="M61" s="40"/>
@@ -4880,16 +4879,16 @@
     </row>
     <row r="62" spans="1:16">
       <c r="A62" s="26" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B62" s="38" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C62" s="38" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D62" s="38" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E62" s="27"/>
       <c r="F62" s="30"/>
@@ -4907,10 +4906,10 @@
         <v>3</v>
       </c>
       <c r="K62" s="32" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L62" s="33" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="M62" s="34"/>
       <c r="N62" s="34"/>
@@ -4919,16 +4918,16 @@
     </row>
     <row r="63" spans="1:16">
       <c r="A63" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B63" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="C63" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="D63" s="38" t="s">
         <v>153</v>
-      </c>
-      <c r="C63" s="38" t="s">
-        <v>154</v>
-      </c>
-      <c r="D63" s="38" t="s">
-        <v>155</v>
       </c>
       <c r="E63" s="27"/>
       <c r="F63" s="30"/>
@@ -4946,10 +4945,10 @@
         <v>85</v>
       </c>
       <c r="K63" s="36" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L63" s="33" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M63" s="40"/>
       <c r="N63" s="40"/>
@@ -4958,16 +4957,16 @@
     </row>
     <row r="64" spans="1:16">
       <c r="A64" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B64" s="38" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C64" s="38" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D64" s="38" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E64" s="27"/>
       <c r="F64" s="30"/>
@@ -4985,10 +4984,10 @@
         <v>0</v>
       </c>
       <c r="K64" s="36" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L64" s="33" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M64" s="34"/>
       <c r="N64" s="34"/>
@@ -4997,16 +4996,16 @@
     </row>
     <row r="65" spans="1:16">
       <c r="A65" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B65" s="38" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C65" s="38" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D65" s="38" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E65" s="27"/>
       <c r="F65" s="30"/>
@@ -5024,10 +5023,10 @@
         <v>0</v>
       </c>
       <c r="K65" s="36" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="L65" s="33" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M65" s="40"/>
       <c r="N65" s="40"/>
@@ -5036,16 +5035,16 @@
     </row>
     <row r="66" spans="1:16">
       <c r="A66" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B66" s="38" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C66" s="38" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D66" s="38" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E66" s="27"/>
       <c r="F66" s="30"/>
@@ -5063,10 +5062,10 @@
         <v>0</v>
       </c>
       <c r="K66" s="32" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L66" s="33" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M66" s="34"/>
       <c r="N66" s="34"/>
@@ -5075,16 +5074,16 @@
     </row>
     <row r="67" spans="1:16">
       <c r="A67" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B67" s="38" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C67" s="38" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D67" s="38" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E67" s="27"/>
       <c r="F67" s="30"/>
@@ -5102,10 +5101,10 @@
         <v>70</v>
       </c>
       <c r="K67" s="36" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="L67" s="33" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M67" s="40"/>
       <c r="N67" s="40"/>
@@ -5114,16 +5113,16 @@
     </row>
     <row r="68" spans="1:16">
       <c r="A68" s="26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B68" s="38" t="s">
+        <v>164</v>
+      </c>
+      <c r="C68" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="D68" s="38" t="s">
         <v>166</v>
-      </c>
-      <c r="C68" s="38" t="s">
-        <v>167</v>
-      </c>
-      <c r="D68" s="38" t="s">
-        <v>168</v>
       </c>
       <c r="E68" s="27">
         <v>1000</v>
@@ -5145,10 +5144,10 @@
         <v>59</v>
       </c>
       <c r="K68" s="32" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="L68" s="33" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M68" s="34"/>
       <c r="N68" s="34"/>
@@ -5157,16 +5156,16 @@
     </row>
     <row r="69" spans="1:16">
       <c r="A69" s="26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B69" s="38" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C69" s="38" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D69" s="38" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E69" s="27"/>
       <c r="F69" s="30"/>
@@ -5184,10 +5183,10 @@
         <v>41</v>
       </c>
       <c r="K69" s="36" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="L69" s="33" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M69" s="40"/>
       <c r="N69" s="40"/>
@@ -5196,16 +5195,16 @@
     </row>
     <row r="70" spans="1:16">
       <c r="A70" s="26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B70" s="38" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C70" s="38" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D70" s="38" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E70" s="27"/>
       <c r="F70" s="30"/>
@@ -5223,10 +5222,10 @@
         <v>30</v>
       </c>
       <c r="K70" s="36" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="L70" s="33" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M70" s="34"/>
       <c r="N70" s="34"/>
@@ -5235,16 +5234,16 @@
     </row>
     <row r="71" spans="1:16">
       <c r="A71" s="26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B71" s="38" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C71" s="38" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D71" s="38" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E71" s="27"/>
       <c r="F71" s="30"/>
@@ -5262,10 +5261,10 @@
         <v>20</v>
       </c>
       <c r="K71" s="36" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L71" s="33" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M71" s="40"/>
       <c r="N71" s="40"/>
@@ -5274,16 +5273,16 @@
     </row>
     <row r="72" spans="1:16">
       <c r="A72" s="26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B72" s="38" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C72" s="38" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D72" s="38" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E72" s="27">
         <v>200</v>
@@ -5305,10 +5304,10 @@
         <v>48</v>
       </c>
       <c r="K72" s="32" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="L72" s="33" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M72" s="34"/>
       <c r="N72" s="34"/>
@@ -5317,16 +5316,16 @@
     </row>
     <row r="73" spans="1:16">
       <c r="A73" s="26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B73" s="38" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C73" s="38" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D73" s="38" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E73" s="27"/>
       <c r="F73" s="30"/>
@@ -5344,10 +5343,10 @@
         <v>72.5</v>
       </c>
       <c r="K73" s="36" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="L73" s="33" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M73" s="40"/>
       <c r="N73" s="40"/>
@@ -5356,16 +5355,16 @@
     </row>
     <row r="74" spans="1:16">
       <c r="A74" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="B74" s="38" t="s">
+        <v>193</v>
+      </c>
+      <c r="C74" s="38" t="s">
         <v>194</v>
       </c>
-      <c r="B74" s="38" t="s">
+      <c r="D74" s="38" t="s">
         <v>195</v>
-      </c>
-      <c r="C74" s="38" t="s">
-        <v>196</v>
-      </c>
-      <c r="D74" s="38" t="s">
-        <v>197</v>
       </c>
       <c r="E74" s="27"/>
       <c r="F74" s="30"/>
@@ -5383,10 +5382,10 @@
         <v>50</v>
       </c>
       <c r="K74" s="36" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L74" s="33" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M74" s="40"/>
       <c r="N74" s="40"/>
@@ -5395,16 +5394,16 @@
     </row>
     <row r="75" spans="1:16">
       <c r="A75" s="26" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B75" s="38" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C75" s="38" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D75" s="38" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E75" s="27"/>
       <c r="F75" s="30"/>
@@ -5422,10 +5421,10 @@
         <v>40</v>
       </c>
       <c r="K75" s="32" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L75" s="33" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M75" s="34"/>
       <c r="N75" s="34"/>
@@ -5434,16 +5433,16 @@
     </row>
     <row r="76" spans="1:16">
       <c r="A76" s="26" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B76" s="38" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C76" s="38" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D76" s="38" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E76" s="27"/>
       <c r="F76" s="30"/>
@@ -5461,10 +5460,10 @@
         <v>70</v>
       </c>
       <c r="K76" s="36" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L76" s="33" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M76" s="40"/>
       <c r="N76" s="40"/>
@@ -5473,16 +5472,16 @@
     </row>
     <row r="77" spans="1:16">
       <c r="A77" s="26" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B77" s="38" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C77" s="38" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D77" s="38" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E77" s="27"/>
       <c r="F77" s="30"/>
@@ -5500,10 +5499,10 @@
         <v>20</v>
       </c>
       <c r="K77" s="32" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L77" s="33" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M77" s="34"/>
       <c r="N77" s="34"/>
@@ -5512,16 +5511,16 @@
     </row>
     <row r="78" spans="1:16">
       <c r="A78" s="26" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B78" s="38" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C78" s="38" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D78" s="38" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E78" s="27"/>
       <c r="F78" s="30"/>
@@ -5539,10 +5538,10 @@
         <v>20</v>
       </c>
       <c r="K78" s="36" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L78" s="33" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M78" s="40"/>
       <c r="N78" s="40"/>
@@ -5551,16 +5550,16 @@
     </row>
     <row r="79" spans="1:16">
       <c r="A79" s="26" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B79" s="38" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C79" s="38" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D79" s="38" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E79" s="27"/>
       <c r="F79" s="30"/>
@@ -5578,10 +5577,10 @@
         <v>100</v>
       </c>
       <c r="K79" s="36" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L79" s="33" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M79" s="34"/>
       <c r="N79" s="34"/>
@@ -5590,16 +5589,16 @@
     </row>
     <row r="80" spans="1:16">
       <c r="A80" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="B80" s="38" t="s">
         <v>205</v>
       </c>
-      <c r="B80" s="38" t="s">
-        <v>207</v>
-      </c>
       <c r="C80" s="38" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D80" s="43" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E80" s="27"/>
       <c r="F80" s="30"/>
@@ -5617,10 +5616,10 @@
         <v>100</v>
       </c>
       <c r="K80" s="36" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L80" s="33" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M80" s="40"/>
       <c r="N80" s="40"/>
@@ -5629,16 +5628,16 @@
     </row>
     <row r="81" spans="1:16">
       <c r="A81" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="B81" s="38" t="s">
         <v>205</v>
       </c>
-      <c r="B81" s="38" t="s">
-        <v>207</v>
-      </c>
       <c r="C81" s="43" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D81" s="43" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E81" s="27"/>
       <c r="F81" s="30"/>
@@ -5656,10 +5655,10 @@
         <v>25</v>
       </c>
       <c r="K81" s="32" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L81" s="33" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M81" s="34"/>
       <c r="N81" s="34"/>
@@ -5668,16 +5667,16 @@
     </row>
     <row r="82" spans="1:16">
       <c r="A82" s="26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B82" s="38" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C82" s="38" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D82" s="38" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E82" s="27">
         <v>350</v>
@@ -5697,10 +5696,10 @@
         <v>10</v>
       </c>
       <c r="K82" s="36" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L82" s="33" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M82" s="40"/>
       <c r="N82" s="40"/>
@@ -5709,16 +5708,16 @@
     </row>
     <row r="83" spans="1:16">
       <c r="A83" s="26" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B83" s="38" t="s">
         <v>24</v>
       </c>
       <c r="C83" s="38" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D83" s="38" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E83" s="27">
         <v>400</v>
@@ -5738,10 +5737,10 @@
         <v>24</v>
       </c>
       <c r="K83" s="36" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="L83" s="33" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="M83" s="34"/>
       <c r="N83" s="34"/>
@@ -5750,16 +5749,16 @@
     </row>
     <row r="84" spans="1:16">
       <c r="A84" s="26" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B84" s="38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C84" s="38" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D84" s="38" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E84" s="27"/>
       <c r="F84" s="30"/>
@@ -5778,10 +5777,10 @@
         <v>2.2799999999999998</v>
       </c>
       <c r="K84" s="36" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="L84" s="33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M84" s="40">
         <v>7991</v>
@@ -5794,16 +5793,16 @@
     </row>
     <row r="85" spans="1:16">
       <c r="A85" s="26" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B85" s="38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C85" s="38" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D85" s="38" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E85" s="27"/>
       <c r="F85" s="30"/>
@@ -5822,10 +5821,10 @@
         <v>4.51</v>
       </c>
       <c r="K85" s="36" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="L85" s="33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M85" s="34"/>
       <c r="N85" s="34">
@@ -5838,16 +5837,16 @@
     </row>
     <row r="86" spans="1:16">
       <c r="A86" s="26" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B86" s="38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C86" s="38" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D86" s="38" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E86" s="27"/>
       <c r="F86" s="30"/>
@@ -5866,10 +5865,10 @@
         <v>0.49</v>
       </c>
       <c r="K86" s="36" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L86" s="33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M86" s="40"/>
       <c r="N86" s="40">
@@ -5882,16 +5881,16 @@
     </row>
     <row r="87" spans="1:16">
       <c r="A87" s="26" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B87" s="38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C87" s="38" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D87" s="38" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E87" s="27"/>
       <c r="F87" s="30"/>
@@ -5910,10 +5909,10 @@
         <v>0.99</v>
       </c>
       <c r="K87" s="32" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L87" s="33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M87" s="34"/>
       <c r="N87" s="34">
@@ -5926,16 +5925,16 @@
     </row>
     <row r="88" spans="1:16">
       <c r="A88" s="26" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B88" s="38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C88" s="38" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D88" s="38" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E88" s="27"/>
       <c r="F88" s="30"/>
@@ -5954,10 +5953,10 @@
         <v>5.01</v>
       </c>
       <c r="K88" s="36" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="L88" s="33" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="M88" s="40"/>
       <c r="N88" s="40">
@@ -5970,16 +5969,16 @@
     </row>
     <row r="89" spans="1:16">
       <c r="A89" s="26" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B89" s="38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C89" s="38" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D89" s="38" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E89" s="27"/>
       <c r="F89" s="30"/>
@@ -5998,10 +5997,10 @@
         <v>13.5</v>
       </c>
       <c r="K89" s="32" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="L89" s="33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M89" s="34"/>
       <c r="N89" s="34"/>
@@ -6010,16 +6009,16 @@
     </row>
     <row r="90" spans="1:16">
       <c r="A90" s="26" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B90" s="38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C90" s="38" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D90" s="38" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E90" s="27"/>
       <c r="F90" s="30"/>
@@ -6038,10 +6037,10 @@
         <v>3.62</v>
       </c>
       <c r="K90" s="36" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="L90" s="33" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="M90" s="40"/>
       <c r="N90" s="40"/>
@@ -6050,16 +6049,16 @@
     </row>
     <row r="91" spans="1:16">
       <c r="A91" s="26" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B91" s="38" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C91" s="38" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D91" s="38" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E91" s="27"/>
       <c r="F91" s="30"/>
@@ -6077,10 +6076,10 @@
         <v>3</v>
       </c>
       <c r="K91" s="36" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="L91" s="33" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="M91" s="34"/>
       <c r="N91" s="34"/>
@@ -6089,16 +6088,16 @@
     </row>
     <row r="92" spans="1:16">
       <c r="A92" s="26" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B92" s="38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C92" s="38" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D92" s="38" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E92" s="27"/>
       <c r="F92" s="30"/>
@@ -6117,10 +6116,10 @@
         <v>4.7799999999999994</v>
       </c>
       <c r="K92" s="36" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="L92" s="33" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="M92" s="40"/>
       <c r="N92" s="40"/>
@@ -6131,16 +6130,16 @@
     </row>
     <row r="93" spans="1:16">
       <c r="A93" s="26" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B93" s="38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C93" s="38" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D93" s="38" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E93" s="27"/>
       <c r="F93" s="30"/>
@@ -6158,10 +6157,10 @@
         <v>2</v>
       </c>
       <c r="K93" s="32" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="L93" s="33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M93" s="34">
         <v>7991</v>
@@ -6174,16 +6173,16 @@
     </row>
     <row r="94" spans="1:16">
       <c r="A94" s="26" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B94" s="38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C94" s="38" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D94" s="38" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E94" s="27"/>
       <c r="F94" s="30"/>
@@ -6202,10 +6201,10 @@
         <v>2.5</v>
       </c>
       <c r="K94" s="36" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="L94" s="33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M94" s="40">
         <v>7991</v>
@@ -6218,16 +6217,16 @@
     </row>
     <row r="95" spans="1:16">
       <c r="A95" s="26" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B95" s="38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C95" s="38" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D95" s="38" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E95" s="27"/>
       <c r="F95" s="30"/>
@@ -6246,10 +6245,10 @@
         <v>4.3099999999999996</v>
       </c>
       <c r="K95" s="32" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="L95" s="33" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M95" s="34"/>
       <c r="N95" s="34"/>
@@ -6258,16 +6257,16 @@
     </row>
     <row r="96" spans="1:16">
       <c r="A96" s="26" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B96" s="38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C96" s="38" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D96" s="38" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E96" s="27"/>
       <c r="F96" s="30"/>
@@ -6286,10 +6285,10 @@
         <v>1.72</v>
       </c>
       <c r="K96" s="36" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="L96" s="33" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="M96" s="40"/>
       <c r="N96" s="40"/>
@@ -6298,16 +6297,16 @@
     </row>
     <row r="97" spans="1:26">
       <c r="A97" s="26" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B97" s="38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C97" s="38" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D97" s="38" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E97" s="27"/>
       <c r="F97" s="30"/>
@@ -6326,10 +6325,10 @@
         <v>2.44</v>
       </c>
       <c r="K97" s="36" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="L97" s="33" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="M97" s="34"/>
       <c r="N97" s="34"/>
@@ -6340,16 +6339,16 @@
     </row>
     <row r="98" spans="1:26">
       <c r="A98" s="26" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B98" s="38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C98" s="38" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D98" s="38" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E98" s="27"/>
       <c r="F98" s="30"/>
@@ -6368,10 +6367,10 @@
         <v>2.38</v>
       </c>
       <c r="K98" s="36" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="L98" s="33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M98" s="40"/>
       <c r="N98" s="40"/>
@@ -6382,16 +6381,16 @@
     </row>
     <row r="99" spans="1:26">
       <c r="A99" s="26" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B99" s="38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C99" s="38" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D99" s="38" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E99" s="27"/>
       <c r="F99" s="30"/>
@@ -6410,10 +6409,10 @@
         <v>3.27</v>
       </c>
       <c r="K99" s="32" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="L99" s="33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M99" s="34"/>
       <c r="N99" s="34"/>
@@ -6424,16 +6423,16 @@
     </row>
     <row r="100" spans="1:26">
       <c r="A100" s="26" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B100" s="38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C100" s="38" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D100" s="38" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E100" s="27"/>
       <c r="F100" s="30"/>
@@ -6452,10 +6451,10 @@
         <v>2.57</v>
       </c>
       <c r="K100" s="36" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="L100" s="33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M100" s="40"/>
       <c r="N100" s="40"/>
@@ -6466,16 +6465,16 @@
     </row>
     <row r="101" spans="1:26">
       <c r="A101" s="26" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B101" s="38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C101" s="38" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D101" s="38" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E101" s="27"/>
       <c r="F101" s="30"/>
@@ -6494,10 +6493,10 @@
         <v>2.75</v>
       </c>
       <c r="K101" s="32" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="L101" s="33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M101" s="34">
         <v>912</v>
@@ -6510,16 +6509,16 @@
     </row>
     <row r="102" spans="1:26">
       <c r="A102" s="26" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B102" s="38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C102" s="38" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D102" s="38" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E102" s="27"/>
       <c r="F102" s="30"/>
@@ -6538,10 +6537,10 @@
         <v>1.75</v>
       </c>
       <c r="K102" s="36" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="L102" s="33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M102" s="40"/>
       <c r="N102" s="40">
@@ -6554,16 +6553,16 @@
     </row>
     <row r="103" spans="1:26">
       <c r="A103" s="26" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B103" s="38" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C103" s="38" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D103" s="38" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E103" s="27"/>
       <c r="F103" s="30"/>
@@ -6581,10 +6580,10 @@
         <v>12</v>
       </c>
       <c r="K103" s="36" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="L103" s="33" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="M103" s="34"/>
       <c r="N103" s="34"/>
@@ -6595,16 +6594,16 @@
     </row>
     <row r="104" spans="1:26">
       <c r="A104" s="26" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B104" s="38" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C104" s="38" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D104" s="38" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E104" s="27"/>
       <c r="F104" s="30"/>
@@ -6622,10 +6621,10 @@
         <v>12</v>
       </c>
       <c r="K104" s="36" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="L104" s="33" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="M104" s="40"/>
       <c r="N104" s="40"/>
@@ -6634,16 +6633,16 @@
     </row>
     <row r="105" spans="1:26">
       <c r="A105" s="26" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B105" s="38" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C105" s="38" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D105" s="38" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E105" s="27"/>
       <c r="F105" s="30"/>
@@ -6662,10 +6661,10 @@
         <v>3.96</v>
       </c>
       <c r="K105" s="32" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="L105" s="33" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="M105" s="40"/>
       <c r="N105" s="40"/>
@@ -6676,16 +6675,16 @@
     </row>
     <row r="106" spans="1:26" s="4" customFormat="1">
       <c r="A106" s="26" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B106" s="38" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C106" s="38" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D106" s="38" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E106" s="27"/>
       <c r="F106" s="30"/>
@@ -6703,10 +6702,10 @@
         <v>4.5</v>
       </c>
       <c r="K106" s="36" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="L106" s="33" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M106" s="40"/>
       <c r="N106" s="40"/>
@@ -6715,16 +6714,16 @@
     </row>
     <row r="107" spans="1:26">
       <c r="A107" s="26" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B107" s="38" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C107" s="38" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D107" s="38" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E107" s="27"/>
       <c r="F107" s="30"/>
@@ -6742,30 +6741,30 @@
         <v>0</v>
       </c>
       <c r="K107" s="32" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="L107" s="33" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="M107" s="34"/>
       <c r="N107" s="34"/>
       <c r="O107" s="59"/>
       <c r="P107" s="46" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="108" spans="1:26">
       <c r="A108" s="26" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B108" s="38" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C108" s="38" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D108" s="38" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E108" s="27"/>
       <c r="F108" s="30"/>
@@ -6783,30 +6782,30 @@
         <v>4</v>
       </c>
       <c r="K108" s="36" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="L108" s="33" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="M108" s="34"/>
       <c r="N108" s="34"/>
       <c r="O108" s="59"/>
       <c r="P108" s="46" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="109" spans="1:26">
       <c r="A109" s="26" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B109" s="38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C109" s="38" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D109" s="38" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E109" s="27"/>
       <c r="F109" s="30"/>
@@ -6825,30 +6824,30 @@
         <v>0.87</v>
       </c>
       <c r="K109" s="36" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="L109" s="33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M109" s="34"/>
       <c r="N109" s="34"/>
       <c r="O109" s="60"/>
       <c r="P109" s="47" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="110" spans="1:26" s="4" customFormat="1">
       <c r="A110" s="26" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B110" s="38" t="s">
+        <v>296</v>
+      </c>
+      <c r="C110" s="38" t="s">
+        <v>297</v>
+      </c>
+      <c r="D110" s="38" t="s">
         <v>298</v>
-      </c>
-      <c r="C110" s="38" t="s">
-        <v>299</v>
-      </c>
-      <c r="D110" s="38" t="s">
-        <v>300</v>
       </c>
       <c r="E110" s="27"/>
       <c r="F110" s="30"/>
@@ -6866,17 +6865,17 @@
         <v>21.5</v>
       </c>
       <c r="K110" s="36" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L110" s="33" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M110" s="34"/>
       <c r="N110" s="34"/>
       <c r="O110" s="60"/>
       <c r="P110" s="47"/>
     </row>
-    <row r="111" spans="1:26" ht="15" thickBot="1">
+    <row r="111" spans="1:26" ht="15.75" thickBot="1">
       <c r="A111" s="48"/>
       <c r="B111" s="49"/>
       <c r="C111" s="49"/>
@@ -6894,13 +6893,13 @@
       <c r="O111" s="61"/>
       <c r="P111" s="35"/>
     </row>
-    <row r="112" spans="1:26" s="14" customFormat="1" ht="16.2" thickBot="1">
+    <row r="112" spans="1:26" s="14" customFormat="1" ht="16.5" thickBot="1">
       <c r="A112" s="15"/>
       <c r="B112" s="16" t="s">
         <v>5</v>
       </c>
       <c r="C112" s="17" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D112" s="17" t="s">
         <v>6</v>
@@ -6936,100 +6935,100 @@
     <mergeCell ref="A1:P1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="K10" r:id="rId1"/>
-    <hyperlink ref="K11" r:id="rId2"/>
-    <hyperlink ref="K12" r:id="rId3"/>
-    <hyperlink ref="K13" r:id="rId4"/>
-    <hyperlink ref="K14" r:id="rId5"/>
-    <hyperlink ref="K15" r:id="rId6" display="Color: 10pcs 2028"/>
-    <hyperlink ref="K19" r:id="rId7"/>
-    <hyperlink ref="K20" r:id="rId8"/>
-    <hyperlink ref="K21" r:id="rId9"/>
-    <hyperlink ref="K22" r:id="rId10"/>
-    <hyperlink ref="K23" r:id="rId11"/>
-    <hyperlink ref="K24" r:id="rId12"/>
-    <hyperlink ref="K25" r:id="rId13"/>
-    <hyperlink ref="K26" r:id="rId14"/>
-    <hyperlink ref="K27" r:id="rId15"/>
-    <hyperlink ref="K28" r:id="rId16"/>
-    <hyperlink ref="K29" r:id="rId17"/>
-    <hyperlink ref="K30" r:id="rId18" display="1x Size: 20-m3 50pcs"/>
-    <hyperlink ref="K31" r:id="rId19"/>
-    <hyperlink ref="K32" r:id="rId20"/>
-    <hyperlink ref="K33" r:id="rId21"/>
-    <hyperlink ref="K34" r:id="rId22"/>
-    <hyperlink ref="K35" r:id="rId23"/>
-    <hyperlink ref="K36" r:id="rId24"/>
-    <hyperlink ref="K37" r:id="rId25"/>
-    <hyperlink ref="K38" r:id="rId26"/>
-    <hyperlink ref="K39" r:id="rId27"/>
-    <hyperlink ref="K40" r:id="rId28"/>
-    <hyperlink ref="K41" r:id="rId29"/>
-    <hyperlink ref="K42" r:id="rId30"/>
-    <hyperlink ref="K43" r:id="rId31"/>
-    <hyperlink ref="K44" r:id="rId32"/>
-    <hyperlink ref="K45" r:id="rId33"/>
-    <hyperlink ref="K46" r:id="rId34"/>
-    <hyperlink ref="K47" r:id="rId35"/>
-    <hyperlink ref="K48" r:id="rId36"/>
-    <hyperlink ref="K53" r:id="rId37"/>
-    <hyperlink ref="K54" r:id="rId38"/>
-    <hyperlink ref="K55" r:id="rId39"/>
-    <hyperlink ref="K56" r:id="rId40"/>
-    <hyperlink ref="K57" r:id="rId41" display="1x 310mm 220V 750W"/>
-    <hyperlink ref="O58" r:id="rId42"/>
-    <hyperlink ref="K59" r:id="rId43"/>
-    <hyperlink ref="K62" r:id="rId44"/>
-    <hyperlink ref="K63" r:id="rId45"/>
-    <hyperlink ref="K64" r:id="rId46"/>
-    <hyperlink ref="K65" r:id="rId47"/>
-    <hyperlink ref="K66" r:id="rId48"/>
-    <hyperlink ref="K67" r:id="rId49"/>
-    <hyperlink ref="K68" r:id="rId50"/>
-    <hyperlink ref="K69" r:id="rId51"/>
-    <hyperlink ref="K70" r:id="rId52"/>
-    <hyperlink ref="K71" r:id="rId53"/>
-    <hyperlink ref="K72" r:id="rId54"/>
-    <hyperlink ref="K73" r:id="rId55"/>
-    <hyperlink ref="K16" r:id="rId56"/>
-    <hyperlink ref="K17" r:id="rId57"/>
-    <hyperlink ref="K18" r:id="rId58"/>
-    <hyperlink ref="K82" r:id="rId59"/>
-    <hyperlink ref="K83" r:id="rId60" display="Color: Buffer 14inch 35cm"/>
-    <hyperlink ref="K84" r:id="rId61"/>
-    <hyperlink ref="K85" r:id="rId62"/>
-    <hyperlink ref="K86" r:id="rId63"/>
-    <hyperlink ref="K87" r:id="rId64"/>
-    <hyperlink ref="K88" r:id="rId65"/>
-    <hyperlink ref="K89" r:id="rId66"/>
-    <hyperlink ref="K90" r:id="rId67"/>
-    <hyperlink ref="K91" r:id="rId68"/>
-    <hyperlink ref="K92" r:id="rId69"/>
-    <hyperlink ref="K93" r:id="rId70"/>
-    <hyperlink ref="K94" r:id="rId71"/>
-    <hyperlink ref="K95" r:id="rId72"/>
-    <hyperlink ref="K96" r:id="rId73" display="1x Length 15mm - Wire 0.7 - OD 7"/>
-    <hyperlink ref="K97" r:id="rId74"/>
-    <hyperlink ref="K98" r:id="rId75"/>
-    <hyperlink ref="K99" r:id="rId76"/>
-    <hyperlink ref="K100" r:id="rId77" display="1x Size: M3 - 30mm"/>
-    <hyperlink ref="K101" r:id="rId78"/>
-    <hyperlink ref="K102" r:id="rId79"/>
-    <hyperlink ref="K103" r:id="rId80"/>
-    <hyperlink ref="K104" r:id="rId81"/>
-    <hyperlink ref="K105" r:id="rId82"/>
-    <hyperlink ref="K107" r:id="rId83"/>
-    <hyperlink ref="K108" r:id="rId84"/>
-    <hyperlink ref="K109" r:id="rId85"/>
-    <hyperlink ref="K49" r:id="rId86"/>
-    <hyperlink ref="K106" r:id="rId87"/>
-    <hyperlink ref="O15" r:id="rId88" display="Color: 2040-8 hole"/>
-    <hyperlink ref="K60" r:id="rId89"/>
-    <hyperlink ref="K61" r:id="rId90"/>
-    <hyperlink ref="K110" r:id="rId91"/>
-    <hyperlink ref="K50" r:id="rId92"/>
-    <hyperlink ref="K51" r:id="rId93" display="M3 ss washer"/>
-    <hyperlink ref="K58" r:id="rId94" display="2x 164-0575"/>
+    <hyperlink ref="K10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="K11" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="K12" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="K13" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="K14" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="K15" r:id="rId6" display="Color: 10pcs 2028" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="K19" r:id="rId7" display="Ask for Precision Cut Frame Bundle" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="K20" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="K21" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="K22" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="K23" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="K24" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="K25" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="K26" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="K27" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="K28" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="K29" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="K30" r:id="rId18" display="1x Size: 20-m3 50pcs" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="K31" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="K32" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="K33" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="K34" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="K35" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="K36" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="K37" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="K38" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="K39" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="K40" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="K41" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="K42" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="K43" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="K44" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="K45" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="K46" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="K47" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="K48" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="K53" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="K54" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="K55" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="K56" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="K57" r:id="rId41" display="1x 310mm 220V 750W" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="O58" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="K59" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="K62" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="K63" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="K64" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="K65" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="K66" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="K67" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="K68" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="K69" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="K70" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="K71" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="K72" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="K73" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="K16" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="K17" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="K18" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="K82" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="K83" r:id="rId60" display="Color: Buffer 14inch 35cm" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="K84" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="K85" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="K86" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="K87" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="K88" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="K89" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="K90" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="K91" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="K92" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="K93" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="K94" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="K95" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="K96" r:id="rId73" display="1x Length 15mm - Wire 0.7 - OD 7" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="K97" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="K98" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="K99" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="K100" r:id="rId77" display="1x Size: M3 - 30mm" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="K101" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="K102" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="K103" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="K104" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="K105" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="K107" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="K108" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="K109" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="K49" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="K106" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="O15" r:id="rId88" display="Color: 2040-8 hole" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="K60" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="K61" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="K110" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="K50" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="K51" r:id="rId93" display="M3 ss washer" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="K58" r:id="rId94" display="2x 164-0575" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId95"/>

--- a/Document Library/Bill Of Materials/Valkyrie BOM Beta 07.xlsx
+++ b/Document Library/Bill Of Materials/Valkyrie BOM Beta 07.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_90E8A2594C63906364F20E90CDD1628CCD4781EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16A4D0A4-9419-4031-AEDA-6F9C83E6023C}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="11_90E8A2594C63906364F20E90CDD1628CCD4781EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FD240B4-886A-49AB-963C-BE5BE8159B0B}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -551,7 +551,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="316">
   <si>
     <t>PROJECT VALKYRIE</t>
   </si>
@@ -987,9 +987,6 @@
   </si>
   <si>
     <t>Heater</t>
-  </si>
-  <si>
-    <t>IdeaFormer</t>
   </si>
   <si>
     <t>Solid State Relay</t>
@@ -1435,9 +1432,6 @@
     <t>BulkMan</t>
   </si>
   <si>
-    <t>110/220V 750W Heating Pad</t>
-  </si>
-  <si>
     <t>1x Select Color: 220V/110V</t>
   </si>
   <si>
@@ -1529,6 +1523,15 @@
   </si>
   <si>
     <t>2040 Frame Kit</t>
+  </si>
+  <si>
+    <t>1x 220V/110V</t>
+  </si>
+  <si>
+    <t>Keenovo 750W Silicone Heating Pad</t>
+  </si>
+  <si>
+    <t>Keenovo</t>
   </si>
 </sst>
 </file>
@@ -2052,11 +2055,11 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2576,8 +2579,8 @@
   <dimension ref="A1:Z112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="A1:P6"/>
+      <pane ySplit="9" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -2602,29 +2605,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="26.25">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="1"/>
       <c r="B2" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -2654,7 +2657,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>6</v>
@@ -2666,7 +2669,7 @@
       <c r="I8" s="9"/>
       <c r="J8" s="63">
         <f>J112</f>
-        <v>1835.4599999999998</v>
+        <v>1870.85</v>
       </c>
       <c r="K8" s="8"/>
       <c r="L8" s="10"/>
@@ -2787,7 +2790,7 @@
       <c r="N10" s="74"/>
       <c r="O10" s="53"/>
       <c r="P10" s="85" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -2834,7 +2837,7 @@
       <c r="N11" s="75"/>
       <c r="O11" s="54"/>
       <c r="P11" s="85" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -2880,7 +2883,7 @@
       <c r="N12" s="75"/>
       <c r="O12" s="54"/>
       <c r="P12" s="85" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="13" spans="1:26">
@@ -2926,7 +2929,7 @@
       <c r="N13" s="75"/>
       <c r="O13" s="54"/>
       <c r="P13" s="85" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -2972,7 +2975,7 @@
       <c r="N14" s="75"/>
       <c r="O14" s="54"/>
       <c r="P14" s="85" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -3004,7 +3007,7 @@
         <v>25</v>
       </c>
       <c r="K15" s="36" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="L15" s="33" t="s">
         <v>28</v>
@@ -3012,7 +3015,7 @@
       <c r="M15" s="34"/>
       <c r="N15" s="75"/>
       <c r="O15" s="62" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="P15" s="35"/>
     </row>
@@ -3021,13 +3024,13 @@
         <v>53</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C16" s="38" t="s">
+        <v>184</v>
+      </c>
+      <c r="D16" s="38" t="s">
         <v>185</v>
-      </c>
-      <c r="D16" s="38" t="s">
-        <v>186</v>
       </c>
       <c r="E16" s="27">
         <v>350</v>
@@ -3047,7 +3050,7 @@
         <v>46.8</v>
       </c>
       <c r="K16" s="32" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L16" s="33" t="s">
         <v>73</v>
@@ -3062,13 +3065,13 @@
         <v>53</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E17" s="27">
         <v>400</v>
@@ -3088,7 +3091,7 @@
         <v>35</v>
       </c>
       <c r="K17" s="36" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L17" s="33" t="s">
         <v>73</v>
@@ -3103,13 +3106,13 @@
         <v>53</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E18" s="27">
         <v>400</v>
@@ -3129,7 +3132,7 @@
         <v>16</v>
       </c>
       <c r="K18" s="36" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L18" s="33" t="s">
         <v>73</v>
@@ -3150,7 +3153,7 @@
         <v>39</v>
       </c>
       <c r="D19" s="79" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E19" s="78"/>
       <c r="F19" s="78"/>
@@ -3166,11 +3169,11 @@
       <c r="J19" s="81">
         <v>265.60000000000002</v>
       </c>
-      <c r="K19" s="98" t="s">
-        <v>313</v>
+      <c r="K19" s="97" t="s">
+        <v>311</v>
       </c>
       <c r="L19" s="82" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="M19" s="83"/>
       <c r="N19" s="84"/>
@@ -3616,7 +3619,7 @@
         <v>3</v>
       </c>
       <c r="K30" s="36" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L30" s="33" t="s">
         <v>57</v>
@@ -4176,7 +4179,7 @@
         <v>75</v>
       </c>
       <c r="D44" s="27" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E44" s="27"/>
       <c r="F44" s="30"/>
@@ -4401,10 +4404,10 @@
         <v>16</v>
       </c>
       <c r="K49" s="36" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L49" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M49" s="40"/>
       <c r="N49" s="40"/>
@@ -4413,7 +4416,7 @@
     </row>
     <row r="50" spans="1:16" s="88" customFormat="1">
       <c r="A50" s="86" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B50" s="87" t="s">
         <v>74</v>
@@ -4422,7 +4425,7 @@
         <v>94</v>
       </c>
       <c r="D50" s="88" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F50" s="89"/>
       <c r="G50" s="89"/>
@@ -4437,7 +4440,7 @@
         <v>8</v>
       </c>
       <c r="K50" s="36" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="L50" s="92" t="s">
         <v>57</v>
@@ -4458,7 +4461,7 @@
         <v>94</v>
       </c>
       <c r="D51" s="88" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F51" s="89"/>
       <c r="G51" s="89"/>
@@ -4473,13 +4476,13 @@
         <v>0.74</v>
       </c>
       <c r="K51" s="91" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L51" s="92" t="s">
         <v>57</v>
       </c>
       <c r="M51" s="96" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="N51" s="93"/>
       <c r="O51" s="94"/>
@@ -4514,7 +4517,7 @@
         <v>12</v>
       </c>
       <c r="K52" s="36" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="L52" s="33" t="s">
         <v>123</v>
@@ -4691,34 +4694,36 @@
         <v>139</v>
       </c>
       <c r="D57" s="38" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
       <c r="E57" s="27">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="F57" s="30"/>
       <c r="G57" s="39">
         <v>1</v>
       </c>
       <c r="H57" s="31">
-        <v>28</v>
+        <v>78.39</v>
       </c>
       <c r="I57" s="39">
         <v>1</v>
       </c>
       <c r="J57" s="31">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>78.39</v>
       </c>
       <c r="K57" s="36" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="L57" s="33" t="s">
-        <v>140</v>
+        <v>315</v>
       </c>
       <c r="M57" s="40"/>
       <c r="N57" s="40"/>
-      <c r="O57" s="54"/>
+      <c r="O57" s="55" t="s">
+        <v>313</v>
+      </c>
       <c r="P57" s="44" t="s">
         <v>22</v>
       </c>
@@ -4734,7 +4739,7 @@
         <v>135</v>
       </c>
       <c r="D58" s="38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E58" s="27"/>
       <c r="F58" s="30"/>
@@ -4752,30 +4757,30 @@
         <v>78</v>
       </c>
       <c r="K58" s="36" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="L58" s="33" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M58" s="34"/>
       <c r="N58" s="34"/>
       <c r="O58" s="55" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P58" s="44"/>
     </row>
     <row r="59" spans="1:16">
       <c r="A59" s="26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B59" s="38" t="s">
         <v>120</v>
       </c>
       <c r="C59" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="D59" s="38" t="s">
         <v>144</v>
-      </c>
-      <c r="D59" s="38" t="s">
-        <v>145</v>
       </c>
       <c r="E59" s="27"/>
       <c r="F59" s="30"/>
@@ -4793,7 +4798,7 @@
         <v>20</v>
       </c>
       <c r="K59" s="36" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L59" s="33" t="s">
         <v>138</v>
@@ -4805,16 +4810,16 @@
     </row>
     <row r="60" spans="1:16" s="4" customFormat="1">
       <c r="A60" s="26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B60" s="38" t="s">
         <v>120</v>
       </c>
       <c r="C60" s="38" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D60" s="38" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E60" s="27"/>
       <c r="F60" s="30"/>
@@ -4832,7 +4837,7 @@
         <v>2</v>
       </c>
       <c r="K60" s="32" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="L60" s="33"/>
       <c r="M60" s="40"/>
@@ -4842,16 +4847,16 @@
     </row>
     <row r="61" spans="1:16" s="4" customFormat="1">
       <c r="A61" s="26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B61" s="38" t="s">
         <v>120</v>
       </c>
       <c r="C61" s="38" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D61" s="38" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E61" s="27"/>
       <c r="F61" s="30"/>
@@ -4869,7 +4874,7 @@
         <v>0</v>
       </c>
       <c r="K61" s="32" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="L61" s="33"/>
       <c r="M61" s="40"/>
@@ -4885,10 +4890,10 @@
         <v>120</v>
       </c>
       <c r="C62" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="D62" s="38" t="s">
         <v>147</v>
-      </c>
-      <c r="D62" s="38" t="s">
-        <v>148</v>
       </c>
       <c r="E62" s="27"/>
       <c r="F62" s="30"/>
@@ -4906,10 +4911,10 @@
         <v>3</v>
       </c>
       <c r="K62" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="L62" s="33" t="s">
         <v>149</v>
-      </c>
-      <c r="L62" s="33" t="s">
-        <v>150</v>
       </c>
       <c r="M62" s="34"/>
       <c r="N62" s="34"/>
@@ -4918,16 +4923,16 @@
     </row>
     <row r="63" spans="1:16">
       <c r="A63" s="26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B63" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="C63" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="C63" s="38" t="s">
+      <c r="D63" s="38" t="s">
         <v>152</v>
-      </c>
-      <c r="D63" s="38" t="s">
-        <v>153</v>
       </c>
       <c r="E63" s="27"/>
       <c r="F63" s="30"/>
@@ -4945,7 +4950,7 @@
         <v>85</v>
       </c>
       <c r="K63" s="36" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L63" s="33" t="s">
         <v>138</v>
@@ -4957,16 +4962,16 @@
     </row>
     <row r="64" spans="1:16">
       <c r="A64" s="26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B64" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="C64" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="C64" s="38" t="s">
-        <v>152</v>
-      </c>
       <c r="D64" s="38" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E64" s="27"/>
       <c r="F64" s="30"/>
@@ -4984,7 +4989,7 @@
         <v>0</v>
       </c>
       <c r="K64" s="36" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L64" s="33" t="s">
         <v>138</v>
@@ -4996,16 +5001,16 @@
     </row>
     <row r="65" spans="1:16">
       <c r="A65" s="26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B65" s="38" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C65" s="38" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D65" s="38" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E65" s="27"/>
       <c r="F65" s="30"/>
@@ -5023,7 +5028,7 @@
         <v>0</v>
       </c>
       <c r="K65" s="36" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L65" s="33" t="s">
         <v>138</v>
@@ -5035,16 +5040,16 @@
     </row>
     <row r="66" spans="1:16">
       <c r="A66" s="26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B66" s="38" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C66" s="38" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D66" s="38" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E66" s="27"/>
       <c r="F66" s="30"/>
@@ -5062,7 +5067,7 @@
         <v>0</v>
       </c>
       <c r="K66" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L66" s="33" t="s">
         <v>138</v>
@@ -5074,16 +5079,16 @@
     </row>
     <row r="67" spans="1:16">
       <c r="A67" s="26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B67" s="38" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C67" s="38" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D67" s="38" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E67" s="27"/>
       <c r="F67" s="30"/>
@@ -5101,10 +5106,10 @@
         <v>70</v>
       </c>
       <c r="K67" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="L67" s="33" t="s">
         <v>162</v>
-      </c>
-      <c r="L67" s="33" t="s">
-        <v>163</v>
       </c>
       <c r="M67" s="40"/>
       <c r="N67" s="40"/>
@@ -5116,13 +5121,13 @@
         <v>53</v>
       </c>
       <c r="B68" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="C68" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="C68" s="38" t="s">
+      <c r="D68" s="38" t="s">
         <v>165</v>
-      </c>
-      <c r="D68" s="38" t="s">
-        <v>166</v>
       </c>
       <c r="E68" s="27">
         <v>1000</v>
@@ -5144,7 +5149,7 @@
         <v>59</v>
       </c>
       <c r="K68" s="32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L68" s="33" t="s">
         <v>138</v>
@@ -5159,13 +5164,13 @@
         <v>53</v>
       </c>
       <c r="B69" s="38" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C69" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="D69" s="38" t="s">
         <v>168</v>
-      </c>
-      <c r="D69" s="38" t="s">
-        <v>169</v>
       </c>
       <c r="E69" s="27"/>
       <c r="F69" s="30"/>
@@ -5183,10 +5188,10 @@
         <v>41</v>
       </c>
       <c r="K69" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="L69" s="33" t="s">
         <v>170</v>
-      </c>
-      <c r="L69" s="33" t="s">
-        <v>171</v>
       </c>
       <c r="M69" s="40"/>
       <c r="N69" s="40"/>
@@ -5198,13 +5203,13 @@
         <v>53</v>
       </c>
       <c r="B70" s="38" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C70" s="38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D70" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E70" s="27"/>
       <c r="F70" s="30"/>
@@ -5222,10 +5227,10 @@
         <v>30</v>
       </c>
       <c r="K70" s="36" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L70" s="33" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M70" s="34"/>
       <c r="N70" s="34"/>
@@ -5237,13 +5242,13 @@
         <v>53</v>
       </c>
       <c r="B71" s="38" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C71" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="D71" s="38" t="s">
         <v>174</v>
-      </c>
-      <c r="D71" s="38" t="s">
-        <v>175</v>
       </c>
       <c r="E71" s="27"/>
       <c r="F71" s="30"/>
@@ -5261,10 +5266,10 @@
         <v>20</v>
       </c>
       <c r="K71" s="36" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L71" s="33" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M71" s="40"/>
       <c r="N71" s="40"/>
@@ -5276,13 +5281,13 @@
         <v>53</v>
       </c>
       <c r="B72" s="38" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C72" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="D72" s="38" t="s">
         <v>177</v>
-      </c>
-      <c r="D72" s="38" t="s">
-        <v>178</v>
       </c>
       <c r="E72" s="27">
         <v>200</v>
@@ -5304,10 +5309,10 @@
         <v>48</v>
       </c>
       <c r="K72" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="L72" s="33" t="s">
         <v>179</v>
-      </c>
-      <c r="L72" s="33" t="s">
-        <v>180</v>
       </c>
       <c r="M72" s="34"/>
       <c r="N72" s="34"/>
@@ -5319,13 +5324,13 @@
         <v>53</v>
       </c>
       <c r="B73" s="38" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C73" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="D73" s="38" t="s">
         <v>181</v>
-      </c>
-      <c r="D73" s="38" t="s">
-        <v>182</v>
       </c>
       <c r="E73" s="27"/>
       <c r="F73" s="30"/>
@@ -5343,10 +5348,10 @@
         <v>72.5</v>
       </c>
       <c r="K73" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="L73" s="33" t="s">
         <v>183</v>
-      </c>
-      <c r="L73" s="33" t="s">
-        <v>184</v>
       </c>
       <c r="M73" s="40"/>
       <c r="N73" s="40"/>
@@ -5355,16 +5360,16 @@
     </row>
     <row r="74" spans="1:16">
       <c r="A74" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="B74" s="38" t="s">
         <v>192</v>
       </c>
-      <c r="B74" s="38" t="s">
+      <c r="C74" s="38" t="s">
         <v>193</v>
       </c>
-      <c r="C74" s="38" t="s">
+      <c r="D74" s="38" t="s">
         <v>194</v>
-      </c>
-      <c r="D74" s="38" t="s">
-        <v>195</v>
       </c>
       <c r="E74" s="27"/>
       <c r="F74" s="30"/>
@@ -5382,10 +5387,10 @@
         <v>50</v>
       </c>
       <c r="K74" s="36" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L74" s="33" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M74" s="40"/>
       <c r="N74" s="40"/>
@@ -5394,16 +5399,16 @@
     </row>
     <row r="75" spans="1:16">
       <c r="A75" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="B75" s="38" t="s">
         <v>192</v>
       </c>
-      <c r="B75" s="38" t="s">
-        <v>193</v>
-      </c>
       <c r="C75" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="D75" s="38" t="s">
         <v>197</v>
-      </c>
-      <c r="D75" s="38" t="s">
-        <v>198</v>
       </c>
       <c r="E75" s="27"/>
       <c r="F75" s="30"/>
@@ -5421,10 +5426,10 @@
         <v>40</v>
       </c>
       <c r="K75" s="32" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L75" s="33" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M75" s="34"/>
       <c r="N75" s="34"/>
@@ -5433,16 +5438,16 @@
     </row>
     <row r="76" spans="1:16">
       <c r="A76" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="B76" s="38" t="s">
         <v>192</v>
       </c>
-      <c r="B76" s="38" t="s">
-        <v>193</v>
-      </c>
       <c r="C76" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="D76" s="38" t="s">
         <v>199</v>
-      </c>
-      <c r="D76" s="38" t="s">
-        <v>200</v>
       </c>
       <c r="E76" s="27"/>
       <c r="F76" s="30"/>
@@ -5460,10 +5465,10 @@
         <v>70</v>
       </c>
       <c r="K76" s="36" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L76" s="33" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M76" s="40"/>
       <c r="N76" s="40"/>
@@ -5472,16 +5477,16 @@
     </row>
     <row r="77" spans="1:16">
       <c r="A77" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="B77" s="38" t="s">
         <v>192</v>
       </c>
-      <c r="B77" s="38" t="s">
-        <v>193</v>
-      </c>
       <c r="C77" s="38" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D77" s="38" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E77" s="27"/>
       <c r="F77" s="30"/>
@@ -5499,10 +5504,10 @@
         <v>20</v>
       </c>
       <c r="K77" s="32" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L77" s="33" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M77" s="34"/>
       <c r="N77" s="34"/>
@@ -5511,16 +5516,16 @@
     </row>
     <row r="78" spans="1:16">
       <c r="A78" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="B78" s="38" t="s">
         <v>192</v>
       </c>
-      <c r="B78" s="38" t="s">
-        <v>193</v>
-      </c>
       <c r="C78" s="38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D78" s="38" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E78" s="27"/>
       <c r="F78" s="30"/>
@@ -5538,10 +5543,10 @@
         <v>20</v>
       </c>
       <c r="K78" s="36" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L78" s="33" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M78" s="40"/>
       <c r="N78" s="40"/>
@@ -5550,16 +5555,16 @@
     </row>
     <row r="79" spans="1:16">
       <c r="A79" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="B79" s="38" t="s">
         <v>203</v>
       </c>
-      <c r="B79" s="38" t="s">
-        <v>204</v>
-      </c>
       <c r="C79" s="38" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D79" s="38" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E79" s="27"/>
       <c r="F79" s="30"/>
@@ -5567,20 +5572,20 @@
         <v>5</v>
       </c>
       <c r="H79" s="31">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I79" s="39">
         <v>5</v>
       </c>
       <c r="J79" s="31">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K79" s="36" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L79" s="33" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M79" s="34"/>
       <c r="N79" s="34"/>
@@ -5589,16 +5594,16 @@
     </row>
     <row r="80" spans="1:16">
       <c r="A80" s="26" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B80" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="C80" s="38" t="s">
         <v>205</v>
       </c>
-      <c r="C80" s="38" t="s">
-        <v>206</v>
-      </c>
       <c r="D80" s="43" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E80" s="27"/>
       <c r="F80" s="30"/>
@@ -5606,20 +5611,20 @@
         <v>5</v>
       </c>
       <c r="H80" s="31">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I80" s="39">
         <v>5</v>
       </c>
       <c r="J80" s="31">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="K80" s="36" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L80" s="33" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M80" s="40"/>
       <c r="N80" s="40"/>
@@ -5628,16 +5633,16 @@
     </row>
     <row r="81" spans="1:16">
       <c r="A81" s="26" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B81" s="38" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C81" s="43" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D81" s="43" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E81" s="27"/>
       <c r="F81" s="30"/>
@@ -5655,10 +5660,10 @@
         <v>25</v>
       </c>
       <c r="K81" s="32" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L81" s="33" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M81" s="34"/>
       <c r="N81" s="34"/>
@@ -5670,13 +5675,13 @@
         <v>44</v>
       </c>
       <c r="B82" s="38" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C82" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="D82" s="38" t="s">
         <v>207</v>
-      </c>
-      <c r="D82" s="38" t="s">
-        <v>208</v>
       </c>
       <c r="E82" s="27">
         <v>350</v>
@@ -5696,10 +5701,10 @@
         <v>10</v>
       </c>
       <c r="K82" s="36" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L82" s="33" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M82" s="40"/>
       <c r="N82" s="40"/>
@@ -5708,7 +5713,7 @@
     </row>
     <row r="83" spans="1:16">
       <c r="A83" s="26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B83" s="38" t="s">
         <v>24</v>
@@ -5717,7 +5722,7 @@
         <v>70</v>
       </c>
       <c r="D83" s="38" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E83" s="27">
         <v>400</v>
@@ -5737,10 +5742,10 @@
         <v>24</v>
       </c>
       <c r="K83" s="36" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L83" s="33" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M83" s="34"/>
       <c r="N83" s="34"/>
@@ -5749,7 +5754,7 @@
     </row>
     <row r="84" spans="1:16">
       <c r="A84" s="26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B84" s="38" t="s">
         <v>74</v>
@@ -5758,7 +5763,7 @@
         <v>79</v>
       </c>
       <c r="D84" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E84" s="27"/>
       <c r="F84" s="30"/>
@@ -5777,7 +5782,7 @@
         <v>2.2799999999999998</v>
       </c>
       <c r="K84" s="36" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L84" s="33" t="s">
         <v>57</v>
@@ -5793,7 +5798,7 @@
     </row>
     <row r="85" spans="1:16">
       <c r="A85" s="26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B85" s="38" t="s">
         <v>74</v>
@@ -5802,7 +5807,7 @@
         <v>79</v>
       </c>
       <c r="D85" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E85" s="27"/>
       <c r="F85" s="30"/>
@@ -5821,7 +5826,7 @@
         <v>4.51</v>
       </c>
       <c r="K85" s="36" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L85" s="33" t="s">
         <v>57</v>
@@ -5837,7 +5842,7 @@
     </row>
     <row r="86" spans="1:16">
       <c r="A86" s="26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B86" s="38" t="s">
         <v>74</v>
@@ -5846,7 +5851,7 @@
         <v>75</v>
       </c>
       <c r="D86" s="38" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E86" s="27"/>
       <c r="F86" s="30"/>
@@ -5865,7 +5870,7 @@
         <v>0.49</v>
       </c>
       <c r="K86" s="36" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L86" s="33" t="s">
         <v>57</v>
@@ -5881,7 +5886,7 @@
     </row>
     <row r="87" spans="1:16">
       <c r="A87" s="26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B87" s="38" t="s">
         <v>74</v>
@@ -5909,7 +5914,7 @@
         <v>0.99</v>
       </c>
       <c r="K87" s="32" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L87" s="33" t="s">
         <v>57</v>
@@ -5925,7 +5930,7 @@
     </row>
     <row r="88" spans="1:16">
       <c r="A88" s="26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B88" s="38" t="s">
         <v>74</v>
@@ -5934,7 +5939,7 @@
         <v>70</v>
       </c>
       <c r="D88" s="38" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E88" s="27"/>
       <c r="F88" s="30"/>
@@ -5953,10 +5958,10 @@
         <v>5.01</v>
       </c>
       <c r="K88" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="L88" s="33" t="s">
         <v>221</v>
-      </c>
-      <c r="L88" s="33" t="s">
-        <v>222</v>
       </c>
       <c r="M88" s="40"/>
       <c r="N88" s="40">
@@ -5969,7 +5974,7 @@
     </row>
     <row r="89" spans="1:16">
       <c r="A89" s="26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B89" s="38" t="s">
         <v>74</v>
@@ -5978,7 +5983,7 @@
         <v>79</v>
       </c>
       <c r="D89" s="38" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E89" s="27"/>
       <c r="F89" s="30"/>
@@ -5997,7 +6002,7 @@
         <v>13.5</v>
       </c>
       <c r="K89" s="32" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L89" s="33" t="s">
         <v>57</v>
@@ -6009,16 +6014,16 @@
     </row>
     <row r="90" spans="1:16">
       <c r="A90" s="26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B90" s="38" t="s">
         <v>74</v>
       </c>
       <c r="C90" s="38" t="s">
+        <v>224</v>
+      </c>
+      <c r="D90" s="38" t="s">
         <v>225</v>
-      </c>
-      <c r="D90" s="38" t="s">
-        <v>226</v>
       </c>
       <c r="E90" s="27"/>
       <c r="F90" s="30"/>
@@ -6037,10 +6042,10 @@
         <v>3.62</v>
       </c>
       <c r="K90" s="36" t="s">
+        <v>226</v>
+      </c>
+      <c r="L90" s="33" t="s">
         <v>227</v>
-      </c>
-      <c r="L90" s="33" t="s">
-        <v>228</v>
       </c>
       <c r="M90" s="40"/>
       <c r="N90" s="40"/>
@@ -6049,16 +6054,16 @@
     </row>
     <row r="91" spans="1:16">
       <c r="A91" s="26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B91" s="38" t="s">
         <v>120</v>
       </c>
       <c r="C91" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="D91" s="38" t="s">
         <v>229</v>
-      </c>
-      <c r="D91" s="38" t="s">
-        <v>230</v>
       </c>
       <c r="E91" s="27"/>
       <c r="F91" s="30"/>
@@ -6076,10 +6081,10 @@
         <v>3</v>
       </c>
       <c r="K91" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="L91" s="33" t="s">
         <v>231</v>
-      </c>
-      <c r="L91" s="33" t="s">
-        <v>232</v>
       </c>
       <c r="M91" s="34"/>
       <c r="N91" s="34"/>
@@ -6088,7 +6093,7 @@
     </row>
     <row r="92" spans="1:16">
       <c r="A92" s="26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B92" s="38" t="s">
         <v>74</v>
@@ -6097,7 +6102,7 @@
         <v>124</v>
       </c>
       <c r="D92" s="38" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E92" s="27"/>
       <c r="F92" s="30"/>
@@ -6116,10 +6121,10 @@
         <v>4.7799999999999994</v>
       </c>
       <c r="K92" s="36" t="s">
+        <v>233</v>
+      </c>
+      <c r="L92" s="33" t="s">
         <v>234</v>
-      </c>
-      <c r="L92" s="33" t="s">
-        <v>235</v>
       </c>
       <c r="M92" s="40"/>
       <c r="N92" s="40"/>
@@ -6130,7 +6135,7 @@
     </row>
     <row r="93" spans="1:16">
       <c r="A93" s="26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B93" s="38" t="s">
         <v>74</v>
@@ -6139,7 +6144,7 @@
         <v>79</v>
       </c>
       <c r="D93" s="38" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E93" s="27"/>
       <c r="F93" s="30"/>
@@ -6157,7 +6162,7 @@
         <v>2</v>
       </c>
       <c r="K93" s="32" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L93" s="33" t="s">
         <v>57</v>
@@ -6173,7 +6178,7 @@
     </row>
     <row r="94" spans="1:16">
       <c r="A94" s="26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B94" s="38" t="s">
         <v>74</v>
@@ -6182,7 +6187,7 @@
         <v>79</v>
       </c>
       <c r="D94" s="38" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E94" s="27"/>
       <c r="F94" s="30"/>
@@ -6201,7 +6206,7 @@
         <v>2.5</v>
       </c>
       <c r="K94" s="36" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L94" s="33" t="s">
         <v>57</v>
@@ -6217,16 +6222,16 @@
     </row>
     <row r="95" spans="1:16">
       <c r="A95" s="26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B95" s="38" t="s">
         <v>74</v>
       </c>
       <c r="C95" s="38" t="s">
+        <v>239</v>
+      </c>
+      <c r="D95" s="38" t="s">
         <v>240</v>
-      </c>
-      <c r="D95" s="38" t="s">
-        <v>241</v>
       </c>
       <c r="E95" s="27"/>
       <c r="F95" s="30"/>
@@ -6245,10 +6250,10 @@
         <v>4.3099999999999996</v>
       </c>
       <c r="K95" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="L95" s="33" t="s">
         <v>242</v>
-      </c>
-      <c r="L95" s="33" t="s">
-        <v>243</v>
       </c>
       <c r="M95" s="34"/>
       <c r="N95" s="34"/>
@@ -6257,16 +6262,16 @@
     </row>
     <row r="96" spans="1:16">
       <c r="A96" s="26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B96" s="38" t="s">
         <v>74</v>
       </c>
       <c r="C96" s="38" t="s">
+        <v>243</v>
+      </c>
+      <c r="D96" s="38" t="s">
         <v>244</v>
-      </c>
-      <c r="D96" s="38" t="s">
-        <v>245</v>
       </c>
       <c r="E96" s="27"/>
       <c r="F96" s="30"/>
@@ -6285,10 +6290,10 @@
         <v>1.72</v>
       </c>
       <c r="K96" s="36" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="L96" s="33" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="M96" s="40"/>
       <c r="N96" s="40"/>
@@ -6297,7 +6302,7 @@
     </row>
     <row r="97" spans="1:26">
       <c r="A97" s="26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B97" s="38" t="s">
         <v>74</v>
@@ -6306,7 +6311,7 @@
         <v>70</v>
       </c>
       <c r="D97" s="38" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E97" s="27"/>
       <c r="F97" s="30"/>
@@ -6325,10 +6330,10 @@
         <v>2.44</v>
       </c>
       <c r="K97" s="36" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="L97" s="33" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M97" s="34"/>
       <c r="N97" s="34"/>
@@ -6339,16 +6344,16 @@
     </row>
     <row r="98" spans="1:26">
       <c r="A98" s="26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B98" s="38" t="s">
         <v>74</v>
       </c>
       <c r="C98" s="38" t="s">
+        <v>248</v>
+      </c>
+      <c r="D98" s="38" t="s">
         <v>249</v>
-      </c>
-      <c r="D98" s="38" t="s">
-        <v>250</v>
       </c>
       <c r="E98" s="27"/>
       <c r="F98" s="30"/>
@@ -6367,7 +6372,7 @@
         <v>2.38</v>
       </c>
       <c r="K98" s="36" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L98" s="33" t="s">
         <v>57</v>
@@ -6381,16 +6386,16 @@
     </row>
     <row r="99" spans="1:26">
       <c r="A99" s="26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B99" s="38" t="s">
         <v>74</v>
       </c>
       <c r="C99" s="38" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D99" s="38" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E99" s="27"/>
       <c r="F99" s="30"/>
@@ -6409,7 +6414,7 @@
         <v>3.27</v>
       </c>
       <c r="K99" s="32" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L99" s="33" t="s">
         <v>57</v>
@@ -6423,16 +6428,16 @@
     </row>
     <row r="100" spans="1:26">
       <c r="A100" s="26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B100" s="38" t="s">
         <v>74</v>
       </c>
       <c r="C100" s="38" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D100" s="38" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E100" s="27"/>
       <c r="F100" s="30"/>
@@ -6451,7 +6456,7 @@
         <v>2.57</v>
       </c>
       <c r="K100" s="36" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="L100" s="33" t="s">
         <v>57</v>
@@ -6465,7 +6470,7 @@
     </row>
     <row r="101" spans="1:26">
       <c r="A101" s="26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B101" s="38" t="s">
         <v>74</v>
@@ -6474,7 +6479,7 @@
         <v>79</v>
       </c>
       <c r="D101" s="38" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E101" s="27"/>
       <c r="F101" s="30"/>
@@ -6493,7 +6498,7 @@
         <v>2.75</v>
       </c>
       <c r="K101" s="32" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L101" s="33" t="s">
         <v>57</v>
@@ -6509,7 +6514,7 @@
     </row>
     <row r="102" spans="1:26">
       <c r="A102" s="26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B102" s="38" t="s">
         <v>74</v>
@@ -6537,7 +6542,7 @@
         <v>1.75</v>
       </c>
       <c r="K102" s="36" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L102" s="33" t="s">
         <v>57</v>
@@ -6553,16 +6558,16 @@
     </row>
     <row r="103" spans="1:26">
       <c r="A103" s="26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B103" s="38" t="s">
         <v>120</v>
       </c>
       <c r="C103" s="38" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D103" s="38" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E103" s="27"/>
       <c r="F103" s="30"/>
@@ -6580,10 +6585,10 @@
         <v>12</v>
       </c>
       <c r="K103" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="L103" s="33" t="s">
         <v>259</v>
-      </c>
-      <c r="L103" s="33" t="s">
-        <v>260</v>
       </c>
       <c r="M103" s="34"/>
       <c r="N103" s="34"/>
@@ -6594,7 +6599,7 @@
     </row>
     <row r="104" spans="1:26">
       <c r="A104" s="26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B104" s="38" t="s">
         <v>120</v>
@@ -6603,7 +6608,7 @@
         <v>139</v>
       </c>
       <c r="D104" s="38" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E104" s="27"/>
       <c r="F104" s="30"/>
@@ -6621,10 +6626,10 @@
         <v>12</v>
       </c>
       <c r="K104" s="36" t="s">
+        <v>261</v>
+      </c>
+      <c r="L104" s="33" t="s">
         <v>262</v>
-      </c>
-      <c r="L104" s="33" t="s">
-        <v>263</v>
       </c>
       <c r="M104" s="40"/>
       <c r="N104" s="40"/>
@@ -6633,16 +6638,16 @@
     </row>
     <row r="105" spans="1:26">
       <c r="A105" s="26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B105" s="38" t="s">
         <v>120</v>
       </c>
       <c r="C105" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D105" s="38" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E105" s="27"/>
       <c r="F105" s="30"/>
@@ -6661,10 +6666,10 @@
         <v>3.96</v>
       </c>
       <c r="K105" s="32" t="s">
+        <v>264</v>
+      </c>
+      <c r="L105" s="33" t="s">
         <v>265</v>
-      </c>
-      <c r="L105" s="33" t="s">
-        <v>266</v>
       </c>
       <c r="M105" s="40"/>
       <c r="N105" s="40"/>
@@ -6675,7 +6680,7 @@
     </row>
     <row r="106" spans="1:26" s="4" customFormat="1">
       <c r="A106" s="26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B106" s="38" t="s">
         <v>120</v>
@@ -6684,7 +6689,7 @@
         <v>66</v>
       </c>
       <c r="D106" s="38" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E106" s="27"/>
       <c r="F106" s="30"/>
@@ -6702,7 +6707,7 @@
         <v>4.5</v>
       </c>
       <c r="K106" s="36" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="L106" s="33" t="s">
         <v>69</v>
@@ -6714,16 +6719,16 @@
     </row>
     <row r="107" spans="1:26">
       <c r="A107" s="26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B107" s="38" t="s">
         <v>120</v>
       </c>
       <c r="C107" s="38" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D107" s="38" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E107" s="27"/>
       <c r="F107" s="30"/>
@@ -6741,30 +6746,30 @@
         <v>0</v>
       </c>
       <c r="K107" s="32" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L107" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M107" s="34"/>
       <c r="N107" s="34"/>
       <c r="O107" s="59"/>
       <c r="P107" s="46" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="108" spans="1:26">
       <c r="A108" s="26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B108" s="38" t="s">
         <v>120</v>
       </c>
       <c r="C108" s="38" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D108" s="38" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E108" s="27"/>
       <c r="F108" s="30"/>
@@ -6782,21 +6787,21 @@
         <v>4</v>
       </c>
       <c r="K108" s="36" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L108" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M108" s="34"/>
       <c r="N108" s="34"/>
       <c r="O108" s="59"/>
       <c r="P108" s="46" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="109" spans="1:26">
       <c r="A109" s="26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B109" s="38" t="s">
         <v>74</v>
@@ -6805,7 +6810,7 @@
         <v>79</v>
       </c>
       <c r="D109" s="38" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E109" s="27"/>
       <c r="F109" s="30"/>
@@ -6824,7 +6829,7 @@
         <v>0.87</v>
       </c>
       <c r="K109" s="36" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="L109" s="33" t="s">
         <v>57</v>
@@ -6833,21 +6838,21 @@
       <c r="N109" s="34"/>
       <c r="O109" s="60"/>
       <c r="P109" s="47" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="110" spans="1:26" s="4" customFormat="1">
       <c r="A110" s="26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B110" s="38" t="s">
+        <v>294</v>
+      </c>
+      <c r="C110" s="38" t="s">
+        <v>295</v>
+      </c>
+      <c r="D110" s="38" t="s">
         <v>296</v>
-      </c>
-      <c r="C110" s="38" t="s">
-        <v>297</v>
-      </c>
-      <c r="D110" s="38" t="s">
-        <v>298</v>
       </c>
       <c r="E110" s="27"/>
       <c r="F110" s="30"/>
@@ -6865,10 +6870,10 @@
         <v>21.5</v>
       </c>
       <c r="K110" s="36" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="L110" s="33" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="M110" s="34"/>
       <c r="N110" s="34"/>
@@ -6899,7 +6904,7 @@
         <v>5</v>
       </c>
       <c r="C112" s="17" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D112" s="17" t="s">
         <v>6</v>
@@ -6911,7 +6916,7 @@
       <c r="I112" s="18"/>
       <c r="J112" s="64">
         <f>SUM(J19:J111)</f>
-        <v>1835.4599999999998</v>
+        <v>1870.85</v>
       </c>
       <c r="K112" s="17"/>
       <c r="L112" s="19"/>
@@ -6975,7 +6980,7 @@
     <hyperlink ref="K54" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
     <hyperlink ref="K55" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
     <hyperlink ref="K56" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="K57" r:id="rId41" display="1x 310mm 220V 750W" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="K57" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
     <hyperlink ref="O58" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
     <hyperlink ref="K59" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
     <hyperlink ref="K62" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
@@ -7029,13 +7034,14 @@
     <hyperlink ref="K50" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
     <hyperlink ref="K51" r:id="rId93" display="M3 ss washer" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
     <hyperlink ref="K58" r:id="rId94" display="2x 164-0575" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="O57" r:id="rId95" display="1x 310mm 220V 750W" xr:uid="{6E7EA03F-E4E8-4DD1-88FA-53A949F0FE0C}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId95"/>
-  <drawing r:id="rId96"/>
-  <legacyDrawing r:id="rId97"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId96"/>
+  <drawing r:id="rId97"/>
+  <legacyDrawing r:id="rId98"/>
   <tableParts count="1">
-    <tablePart r:id="rId98"/>
+    <tablePart r:id="rId99"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Document Library/Bill Of Materials/Valkyrie BOM Beta 07.xlsx
+++ b/Document Library/Bill Of Materials/Valkyrie BOM Beta 07.xlsx
@@ -2579,8 +2579,8 @@
   <dimension ref="A1:Z112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A58" sqref="A58"/>
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>

--- a/Document Library/Bill Of Materials/Valkyrie BOM Beta 07.xlsx
+++ b/Document Library/Bill Of Materials/Valkyrie BOM Beta 07.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="11_90E8A2594C63906364F20E90CDD1628CCD4781EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FD240B4-886A-49AB-963C-BE5BE8159B0B}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="11_90E8A2594C63906364F20E90CDD1628CCD4781EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E513DF3-6A01-4569-BE19-6AF3853D6C03}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -703,12 +703,6 @@
     <t>Print Surface</t>
   </si>
   <si>
-    <t>Removal Spring Steel Sheet</t>
-  </si>
-  <si>
-    <t>Size: 310x310mm</t>
-  </si>
-  <si>
     <t>Energetic</t>
   </si>
   <si>
@@ -1532,6 +1526,12 @@
   </si>
   <si>
     <t>Keenovo</t>
+  </si>
+  <si>
+    <t>Size: 330x330mm</t>
+  </si>
+  <si>
+    <t>Removal Spring Steel PEI Sheet</t>
   </si>
 </sst>
 </file>
@@ -1893,7 +1893,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2061,6 +2061,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2627,7 +2628,7 @@
     <row r="2" spans="1:26">
       <c r="A2" s="1"/>
       <c r="B2" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -2657,7 +2658,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>6</v>
@@ -2669,7 +2670,7 @@
       <c r="I8" s="9"/>
       <c r="J8" s="63">
         <f>J112</f>
-        <v>1870.85</v>
+        <v>1880.85</v>
       </c>
       <c r="K8" s="8"/>
       <c r="L8" s="10"/>
@@ -2790,7 +2791,7 @@
       <c r="N10" s="74"/>
       <c r="O10" s="53"/>
       <c r="P10" s="85" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -2837,7 +2838,7 @@
       <c r="N11" s="75"/>
       <c r="O11" s="54"/>
       <c r="P11" s="85" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -2883,7 +2884,7 @@
       <c r="N12" s="75"/>
       <c r="O12" s="54"/>
       <c r="P12" s="85" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:26">
@@ -2929,7 +2930,7 @@
       <c r="N13" s="75"/>
       <c r="O13" s="54"/>
       <c r="P13" s="85" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -2975,7 +2976,7 @@
       <c r="N14" s="75"/>
       <c r="O14" s="54"/>
       <c r="P14" s="85" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -3007,7 +3008,7 @@
         <v>25</v>
       </c>
       <c r="K15" s="36" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="L15" s="33" t="s">
         <v>28</v>
@@ -3015,22 +3016,22 @@
       <c r="M15" s="34"/>
       <c r="N15" s="75"/>
       <c r="O15" s="62" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="P15" s="35"/>
     </row>
     <row r="16" spans="1:26">
       <c r="A16" s="26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E16" s="27">
         <v>350</v>
@@ -3050,10 +3051,10 @@
         <v>46.8</v>
       </c>
       <c r="K16" s="32" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L16" s="33" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M16" s="34"/>
       <c r="N16" s="75"/>
@@ -3062,16 +3063,16 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E17" s="27">
         <v>400</v>
@@ -3091,10 +3092,10 @@
         <v>35</v>
       </c>
       <c r="K17" s="36" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="L17" s="33" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M17" s="40"/>
       <c r="N17" s="76"/>
@@ -3103,16 +3104,16 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E18" s="27">
         <v>400</v>
@@ -3132,10 +3133,10 @@
         <v>16</v>
       </c>
       <c r="K18" s="36" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L18" s="33" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M18" s="34"/>
       <c r="N18" s="75"/>
@@ -3153,7 +3154,7 @@
         <v>39</v>
       </c>
       <c r="D19" s="79" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E19" s="78"/>
       <c r="F19" s="78"/>
@@ -3170,10 +3171,10 @@
         <v>265.60000000000002</v>
       </c>
       <c r="K19" s="97" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="L19" s="82" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M19" s="83"/>
       <c r="N19" s="84"/>
@@ -3274,31 +3275,31 @@
       <c r="C22" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="27" t="s">
-        <v>50</v>
+      <c r="D22" s="99" t="s">
+        <v>315</v>
       </c>
       <c r="E22" s="27">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="F22" s="30"/>
       <c r="G22" s="30">
         <v>1</v>
       </c>
       <c r="H22" s="31">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I22" s="30">
         <v>1</v>
       </c>
       <c r="J22" s="31">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K22" s="32" t="s">
-        <v>51</v>
+        <v>314</v>
       </c>
       <c r="L22" s="33" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M22" s="34"/>
       <c r="N22" s="34"/>
@@ -3307,16 +3308,16 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B23" s="27" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E23" s="27">
         <v>25</v>
@@ -3336,10 +3337,10 @@
         <v>1.2</v>
       </c>
       <c r="K23" s="36" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L23" s="33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M23" s="34"/>
       <c r="N23" s="34"/>
@@ -3348,16 +3349,16 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B24" s="27" t="s">
         <v>24</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E24" s="27">
         <v>40</v>
@@ -3377,10 +3378,10 @@
         <v>9</v>
       </c>
       <c r="K24" s="32" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L24" s="33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M24" s="34"/>
       <c r="N24" s="34"/>
@@ -3395,10 +3396,10 @@
         <v>24</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E25" s="27">
         <v>50</v>
@@ -3418,10 +3419,10 @@
         <v>6</v>
       </c>
       <c r="K25" s="36" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L25" s="33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M25" s="34"/>
       <c r="N25" s="34"/>
@@ -3436,10 +3437,10 @@
         <v>24</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E26" s="27"/>
       <c r="F26" s="30"/>
@@ -3457,10 +3458,10 @@
         <v>3</v>
       </c>
       <c r="K26" s="32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L26" s="33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M26" s="34"/>
       <c r="N26" s="34"/>
@@ -3475,10 +3476,10 @@
         <v>24</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E27" s="27">
         <v>30</v>
@@ -3498,10 +3499,10 @@
         <v>5</v>
       </c>
       <c r="K27" s="36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L27" s="33" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M27" s="34"/>
       <c r="N27" s="34"/>
@@ -3510,16 +3511,16 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B28" s="27" t="s">
         <v>24</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E28" s="27"/>
       <c r="F28" s="30"/>
@@ -3537,10 +3538,10 @@
         <v>7.5</v>
       </c>
       <c r="K28" s="32" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L28" s="33" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M28" s="34"/>
       <c r="N28" s="34"/>
@@ -3552,13 +3553,13 @@
         <v>23</v>
       </c>
       <c r="B29" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="27" t="s">
         <v>74</v>
-      </c>
-      <c r="C29" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="D29" s="27" t="s">
-        <v>76</v>
       </c>
       <c r="E29" s="27"/>
       <c r="F29" s="30"/>
@@ -3576,10 +3577,10 @@
         <v>1</v>
       </c>
       <c r="K29" s="36" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L29" s="33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M29" s="40">
         <v>934</v>
@@ -3595,13 +3596,13 @@
         <v>23</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E30" s="27"/>
       <c r="F30" s="30"/>
@@ -3619,10 +3620,10 @@
         <v>3</v>
       </c>
       <c r="K30" s="36" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="L30" s="33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M30" s="34"/>
       <c r="N30" s="34"/>
@@ -3634,13 +3635,13 @@
         <v>23</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E31" s="27"/>
       <c r="F31" s="30"/>
@@ -3658,10 +3659,10 @@
         <v>1</v>
       </c>
       <c r="K31" s="36" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L31" s="33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M31" s="40"/>
       <c r="N31" s="40">
@@ -3675,13 +3676,13 @@
         <v>23</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E32" s="27"/>
       <c r="F32" s="30"/>
@@ -3699,10 +3700,10 @@
         <v>1</v>
       </c>
       <c r="K32" s="32" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L32" s="33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M32" s="34">
         <v>912</v>
@@ -3716,13 +3717,13 @@
         <v>23</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D33" s="27" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E33" s="27"/>
       <c r="F33" s="30"/>
@@ -3740,10 +3741,10 @@
         <v>1</v>
       </c>
       <c r="K33" s="36" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L33" s="33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M33" s="40"/>
       <c r="N33" s="40">
@@ -3757,13 +3758,13 @@
         <v>23</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D34" s="38" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E34" s="27"/>
       <c r="F34" s="30"/>
@@ -3781,10 +3782,10 @@
         <v>2</v>
       </c>
       <c r="K34" s="32" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L34" s="33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M34" s="34"/>
       <c r="N34" s="34">
@@ -3798,13 +3799,13 @@
         <v>23</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D35" s="27" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E35" s="27"/>
       <c r="F35" s="30"/>
@@ -3822,10 +3823,10 @@
         <v>12</v>
       </c>
       <c r="K35" s="36" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L35" s="33" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M35" s="40"/>
       <c r="N35" s="40"/>
@@ -3837,13 +3838,13 @@
         <v>23</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C36" s="27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D36" s="27" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E36" s="27"/>
       <c r="F36" s="30"/>
@@ -3861,10 +3862,10 @@
         <v>1.5</v>
       </c>
       <c r="K36" s="36" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L36" s="33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M36" s="34">
         <v>934</v>
@@ -3880,13 +3881,13 @@
         <v>23</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D37" s="27" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E37" s="27"/>
       <c r="F37" s="30"/>
@@ -3904,10 +3905,10 @@
         <v>1.5</v>
       </c>
       <c r="K37" s="36" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L37" s="33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M37" s="40">
         <v>985</v>
@@ -3923,13 +3924,13 @@
         <v>23</v>
       </c>
       <c r="B38" s="27" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D38" s="27" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E38" s="27"/>
       <c r="F38" s="30"/>
@@ -3947,10 +3948,10 @@
         <v>1</v>
       </c>
       <c r="K38" s="32" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L38" s="33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M38" s="34">
         <v>125</v>
@@ -3966,13 +3967,13 @@
         <v>23</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C39" s="27" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D39" s="38" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E39" s="27"/>
       <c r="F39" s="30"/>
@@ -3990,10 +3991,10 @@
         <v>2</v>
       </c>
       <c r="K39" s="36" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L39" s="33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M39" s="40"/>
       <c r="N39" s="40">
@@ -4007,13 +4008,13 @@
         <v>23</v>
       </c>
       <c r="B40" s="27" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C40" s="27" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E40" s="27"/>
       <c r="F40" s="30"/>
@@ -4031,10 +4032,10 @@
         <v>2</v>
       </c>
       <c r="K40" s="32" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L40" s="33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M40" s="34"/>
       <c r="N40" s="34">
@@ -4048,13 +4049,13 @@
         <v>23</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C41" s="27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D41" s="27" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E41" s="27"/>
       <c r="F41" s="30"/>
@@ -4072,10 +4073,10 @@
         <v>2</v>
       </c>
       <c r="K41" s="36" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L41" s="33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M41" s="40">
         <v>934</v>
@@ -4091,13 +4092,13 @@
         <v>23</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C42" s="27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D42" s="27" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E42" s="27"/>
       <c r="F42" s="30"/>
@@ -4115,10 +4116,10 @@
         <v>11</v>
       </c>
       <c r="K42" s="36" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L42" s="33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M42" s="34"/>
       <c r="N42" s="34"/>
@@ -4130,13 +4131,13 @@
         <v>23</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C43" s="27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D43" s="27" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E43" s="27"/>
       <c r="F43" s="30"/>
@@ -4154,10 +4155,10 @@
         <v>2.81</v>
       </c>
       <c r="K43" s="36" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L43" s="33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M43" s="40">
         <v>985</v>
@@ -4173,13 +4174,13 @@
         <v>23</v>
       </c>
       <c r="B44" s="27" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C44" s="27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D44" s="27" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E44" s="27"/>
       <c r="F44" s="30"/>
@@ -4197,10 +4198,10 @@
         <v>13.5</v>
       </c>
       <c r="K44" s="32" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L44" s="33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M44" s="34"/>
       <c r="N44" s="34"/>
@@ -4212,13 +4213,13 @@
         <v>23</v>
       </c>
       <c r="B45" s="27" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C45" s="27" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D45" s="27" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E45" s="27"/>
       <c r="F45" s="30"/>
@@ -4236,10 +4237,10 @@
         <v>2.56</v>
       </c>
       <c r="K45" s="36" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L45" s="33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M45" s="40">
         <v>125</v>
@@ -4255,13 +4256,13 @@
         <v>23</v>
       </c>
       <c r="B46" s="27" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C46" s="27" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D46" s="27" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E46" s="27"/>
       <c r="F46" s="30"/>
@@ -4279,10 +4280,10 @@
         <v>32.28</v>
       </c>
       <c r="K46" s="32" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L46" s="33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M46" s="34"/>
       <c r="N46" s="34">
@@ -4296,13 +4297,13 @@
         <v>23</v>
       </c>
       <c r="B47" s="27" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C47" s="27" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D47" s="27" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E47" s="27"/>
       <c r="F47" s="30"/>
@@ -4320,10 +4321,10 @@
         <v>8</v>
       </c>
       <c r="K47" s="36" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L47" s="33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M47" s="40"/>
       <c r="N47" s="40">
@@ -4337,13 +4338,13 @@
         <v>23</v>
       </c>
       <c r="B48" s="27" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C48" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D48" s="27" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E48" s="27"/>
       <c r="F48" s="30"/>
@@ -4361,10 +4362,10 @@
         <v>2.57</v>
       </c>
       <c r="K48" s="36" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L48" s="33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M48" s="34">
         <v>933</v>
@@ -4380,13 +4381,13 @@
         <v>23</v>
       </c>
       <c r="B49" s="43" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C49" s="43" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D49" s="38" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E49" s="27"/>
       <c r="F49" s="30"/>
@@ -4404,10 +4405,10 @@
         <v>16</v>
       </c>
       <c r="K49" s="36" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="L49" s="33" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="M49" s="40"/>
       <c r="N49" s="40"/>
@@ -4416,16 +4417,16 @@
     </row>
     <row r="50" spans="1:16" s="88" customFormat="1">
       <c r="A50" s="86" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B50" s="87" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C50" s="87" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D50" s="88" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F50" s="89"/>
       <c r="G50" s="89"/>
@@ -4440,10 +4441,10 @@
         <v>8</v>
       </c>
       <c r="K50" s="36" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="L50" s="92" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M50" s="93"/>
       <c r="N50" s="93"/>
@@ -4455,13 +4456,13 @@
         <v>23</v>
       </c>
       <c r="B51" s="87" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C51" s="88" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D51" s="88" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F51" s="89"/>
       <c r="G51" s="89"/>
@@ -4476,13 +4477,13 @@
         <v>0.74</v>
       </c>
       <c r="K51" s="91" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L51" s="92" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M51" s="96" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="N51" s="93"/>
       <c r="O51" s="94"/>
@@ -4490,16 +4491,16 @@
     </row>
     <row r="52" spans="1:16">
       <c r="A52" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="B52" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="C52" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="B52" s="38" t="s">
+      <c r="D52" s="38" t="s">
         <v>120</v>
-      </c>
-      <c r="C52" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="D52" s="38" t="s">
-        <v>122</v>
       </c>
       <c r="E52" s="27"/>
       <c r="F52" s="30"/>
@@ -4517,10 +4518,10 @@
         <v>12</v>
       </c>
       <c r="K52" s="36" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="L52" s="33" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M52" s="34"/>
       <c r="N52" s="34"/>
@@ -4529,16 +4530,16 @@
     </row>
     <row r="53" spans="1:16">
       <c r="A53" s="26" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B53" s="38" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C53" s="38" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D53" s="38" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E53" s="27"/>
       <c r="F53" s="30"/>
@@ -4556,10 +4557,10 @@
         <v>0</v>
       </c>
       <c r="K53" s="36" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L53" s="33" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M53" s="40"/>
       <c r="N53" s="40"/>
@@ -4568,16 +4569,16 @@
     </row>
     <row r="54" spans="1:16">
       <c r="A54" s="26" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B54" s="38" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C54" s="38" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D54" s="38" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E54" s="27"/>
       <c r="F54" s="30"/>
@@ -4595,10 +4596,10 @@
         <v>71</v>
       </c>
       <c r="K54" s="32" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L54" s="33" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M54" s="34"/>
       <c r="N54" s="34"/>
@@ -4607,16 +4608,16 @@
     </row>
     <row r="55" spans="1:16">
       <c r="A55" s="26" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B55" s="38" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C55" s="38" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D55" s="38" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E55" s="27"/>
       <c r="F55" s="30"/>
@@ -4634,10 +4635,10 @@
         <v>23</v>
       </c>
       <c r="K55" s="36" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L55" s="33" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M55" s="40"/>
       <c r="N55" s="40"/>
@@ -4646,16 +4647,16 @@
     </row>
     <row r="56" spans="1:16">
       <c r="A56" s="26" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B56" s="38" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C56" s="38" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D56" s="38" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E56" s="27"/>
       <c r="F56" s="30"/>
@@ -4673,10 +4674,10 @@
         <v>7.5</v>
       </c>
       <c r="K56" s="36" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L56" s="33" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M56" s="34"/>
       <c r="N56" s="34"/>
@@ -4685,16 +4686,16 @@
     </row>
     <row r="57" spans="1:16">
       <c r="A57" s="26" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B57" s="38" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C57" s="38" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D57" s="38" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E57" s="27">
         <v>300</v>
@@ -4714,15 +4715,15 @@
         <v>78.39</v>
       </c>
       <c r="K57" s="36" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L57" s="33" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M57" s="40"/>
       <c r="N57" s="40"/>
       <c r="O57" s="55" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="P57" s="44" t="s">
         <v>22</v>
@@ -4730,16 +4731,16 @@
     </row>
     <row r="58" spans="1:16">
       <c r="A58" s="26" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B58" s="38" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C58" s="38" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D58" s="38" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E58" s="27"/>
       <c r="F58" s="30"/>
@@ -4757,30 +4758,30 @@
         <v>78</v>
       </c>
       <c r="K58" s="36" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="L58" s="33" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M58" s="34"/>
       <c r="N58" s="34"/>
       <c r="O58" s="55" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="P58" s="44"/>
     </row>
     <row r="59" spans="1:16">
       <c r="A59" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="B59" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="C59" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="D59" s="38" t="s">
         <v>142</v>
-      </c>
-      <c r="B59" s="38" t="s">
-        <v>120</v>
-      </c>
-      <c r="C59" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="D59" s="38" t="s">
-        <v>144</v>
       </c>
       <c r="E59" s="27"/>
       <c r="F59" s="30"/>
@@ -4798,10 +4799,10 @@
         <v>20</v>
       </c>
       <c r="K59" s="36" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L59" s="33" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M59" s="40"/>
       <c r="N59" s="40"/>
@@ -4810,16 +4811,16 @@
     </row>
     <row r="60" spans="1:16" s="4" customFormat="1">
       <c r="A60" s="26" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B60" s="38" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C60" s="38" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D60" s="38" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E60" s="27"/>
       <c r="F60" s="30"/>
@@ -4837,7 +4838,7 @@
         <v>2</v>
       </c>
       <c r="K60" s="32" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="L60" s="33"/>
       <c r="M60" s="40"/>
@@ -4847,16 +4848,16 @@
     </row>
     <row r="61" spans="1:16" s="4" customFormat="1">
       <c r="A61" s="26" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B61" s="38" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C61" s="38" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D61" s="38" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E61" s="27"/>
       <c r="F61" s="30"/>
@@ -4874,7 +4875,7 @@
         <v>0</v>
       </c>
       <c r="K61" s="32" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="L61" s="33"/>
       <c r="M61" s="40"/>
@@ -4884,16 +4885,16 @@
     </row>
     <row r="62" spans="1:16">
       <c r="A62" s="26" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B62" s="38" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C62" s="38" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D62" s="38" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E62" s="27"/>
       <c r="F62" s="30"/>
@@ -4911,10 +4912,10 @@
         <v>3</v>
       </c>
       <c r="K62" s="32" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L62" s="33" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="M62" s="34"/>
       <c r="N62" s="34"/>
@@ -4923,16 +4924,16 @@
     </row>
     <row r="63" spans="1:16">
       <c r="A63" s="26" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B63" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="C63" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="D63" s="38" t="s">
         <v>150</v>
-      </c>
-      <c r="C63" s="38" t="s">
-        <v>151</v>
-      </c>
-      <c r="D63" s="38" t="s">
-        <v>152</v>
       </c>
       <c r="E63" s="27"/>
       <c r="F63" s="30"/>
@@ -4950,10 +4951,10 @@
         <v>85</v>
       </c>
       <c r="K63" s="36" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="L63" s="33" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M63" s="40"/>
       <c r="N63" s="40"/>
@@ -4962,16 +4963,16 @@
     </row>
     <row r="64" spans="1:16">
       <c r="A64" s="26" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B64" s="38" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C64" s="38" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D64" s="38" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E64" s="27"/>
       <c r="F64" s="30"/>
@@ -4989,10 +4990,10 @@
         <v>0</v>
       </c>
       <c r="K64" s="36" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L64" s="33" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M64" s="34"/>
       <c r="N64" s="34"/>
@@ -5001,16 +5002,16 @@
     </row>
     <row r="65" spans="1:16">
       <c r="A65" s="26" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B65" s="38" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C65" s="38" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D65" s="38" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E65" s="27"/>
       <c r="F65" s="30"/>
@@ -5028,10 +5029,10 @@
         <v>0</v>
       </c>
       <c r="K65" s="36" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L65" s="33" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M65" s="40"/>
       <c r="N65" s="40"/>
@@ -5040,16 +5041,16 @@
     </row>
     <row r="66" spans="1:16">
       <c r="A66" s="26" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B66" s="38" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C66" s="38" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D66" s="38" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E66" s="27"/>
       <c r="F66" s="30"/>
@@ -5067,10 +5068,10 @@
         <v>0</v>
       </c>
       <c r="K66" s="32" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L66" s="33" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M66" s="34"/>
       <c r="N66" s="34"/>
@@ -5079,16 +5080,16 @@
     </row>
     <row r="67" spans="1:16">
       <c r="A67" s="26" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B67" s="38" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C67" s="38" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D67" s="38" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E67" s="27"/>
       <c r="F67" s="30"/>
@@ -5106,10 +5107,10 @@
         <v>70</v>
       </c>
       <c r="K67" s="36" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="L67" s="33" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="M67" s="40"/>
       <c r="N67" s="40"/>
@@ -5118,16 +5119,16 @@
     </row>
     <row r="68" spans="1:16">
       <c r="A68" s="26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B68" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="C68" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="D68" s="38" t="s">
         <v>163</v>
-      </c>
-      <c r="C68" s="38" t="s">
-        <v>164</v>
-      </c>
-      <c r="D68" s="38" t="s">
-        <v>165</v>
       </c>
       <c r="E68" s="27">
         <v>1000</v>
@@ -5149,10 +5150,10 @@
         <v>59</v>
       </c>
       <c r="K68" s="32" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="L68" s="33" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M68" s="34"/>
       <c r="N68" s="34"/>
@@ -5161,16 +5162,16 @@
     </row>
     <row r="69" spans="1:16">
       <c r="A69" s="26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B69" s="38" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C69" s="38" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D69" s="38" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E69" s="27"/>
       <c r="F69" s="30"/>
@@ -5188,10 +5189,10 @@
         <v>41</v>
       </c>
       <c r="K69" s="36" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="L69" s="33" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M69" s="40"/>
       <c r="N69" s="40"/>
@@ -5200,16 +5201,16 @@
     </row>
     <row r="70" spans="1:16">
       <c r="A70" s="26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B70" s="38" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C70" s="38" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D70" s="38" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E70" s="27"/>
       <c r="F70" s="30"/>
@@ -5227,10 +5228,10 @@
         <v>30</v>
       </c>
       <c r="K70" s="36" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="L70" s="33" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M70" s="34"/>
       <c r="N70" s="34"/>
@@ -5239,16 +5240,16 @@
     </row>
     <row r="71" spans="1:16">
       <c r="A71" s="26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B71" s="38" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C71" s="38" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D71" s="38" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E71" s="27"/>
       <c r="F71" s="30"/>
@@ -5266,10 +5267,10 @@
         <v>20</v>
       </c>
       <c r="K71" s="36" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="L71" s="33" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M71" s="40"/>
       <c r="N71" s="40"/>
@@ -5278,16 +5279,16 @@
     </row>
     <row r="72" spans="1:16">
       <c r="A72" s="26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B72" s="38" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C72" s="38" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D72" s="38" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E72" s="27">
         <v>200</v>
@@ -5309,10 +5310,10 @@
         <v>48</v>
       </c>
       <c r="K72" s="32" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L72" s="33" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="M72" s="34"/>
       <c r="N72" s="34"/>
@@ -5321,16 +5322,16 @@
     </row>
     <row r="73" spans="1:16">
       <c r="A73" s="26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B73" s="38" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C73" s="38" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D73" s="38" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E73" s="27"/>
       <c r="F73" s="30"/>
@@ -5348,10 +5349,10 @@
         <v>72.5</v>
       </c>
       <c r="K73" s="36" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L73" s="33" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M73" s="40"/>
       <c r="N73" s="40"/>
@@ -5360,16 +5361,16 @@
     </row>
     <row r="74" spans="1:16">
       <c r="A74" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="B74" s="38" t="s">
+        <v>190</v>
+      </c>
+      <c r="C74" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="B74" s="38" t="s">
+      <c r="D74" s="38" t="s">
         <v>192</v>
-      </c>
-      <c r="C74" s="38" t="s">
-        <v>193</v>
-      </c>
-      <c r="D74" s="38" t="s">
-        <v>194</v>
       </c>
       <c r="E74" s="27"/>
       <c r="F74" s="30"/>
@@ -5387,10 +5388,10 @@
         <v>50</v>
       </c>
       <c r="K74" s="36" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L74" s="33" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="M74" s="40"/>
       <c r="N74" s="40"/>
@@ -5399,16 +5400,16 @@
     </row>
     <row r="75" spans="1:16">
       <c r="A75" s="26" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B75" s="38" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C75" s="38" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D75" s="38" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E75" s="27"/>
       <c r="F75" s="30"/>
@@ -5426,10 +5427,10 @@
         <v>40</v>
       </c>
       <c r="K75" s="32" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L75" s="33" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="M75" s="34"/>
       <c r="N75" s="34"/>
@@ -5438,16 +5439,16 @@
     </row>
     <row r="76" spans="1:16">
       <c r="A76" s="26" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B76" s="38" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C76" s="38" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D76" s="38" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E76" s="27"/>
       <c r="F76" s="30"/>
@@ -5465,10 +5466,10 @@
         <v>70</v>
       </c>
       <c r="K76" s="36" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L76" s="33" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="M76" s="40"/>
       <c r="N76" s="40"/>
@@ -5477,16 +5478,16 @@
     </row>
     <row r="77" spans="1:16">
       <c r="A77" s="26" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B77" s="38" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C77" s="38" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D77" s="38" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E77" s="27"/>
       <c r="F77" s="30"/>
@@ -5504,10 +5505,10 @@
         <v>20</v>
       </c>
       <c r="K77" s="32" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L77" s="33" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="M77" s="34"/>
       <c r="N77" s="34"/>
@@ -5516,16 +5517,16 @@
     </row>
     <row r="78" spans="1:16">
       <c r="A78" s="26" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B78" s="38" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C78" s="38" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D78" s="38" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E78" s="27"/>
       <c r="F78" s="30"/>
@@ -5543,10 +5544,10 @@
         <v>20</v>
       </c>
       <c r="K78" s="36" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L78" s="33" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="M78" s="40"/>
       <c r="N78" s="40"/>
@@ -5555,16 +5556,16 @@
     </row>
     <row r="79" spans="1:16">
       <c r="A79" s="26" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B79" s="38" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C79" s="38" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D79" s="38" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E79" s="27"/>
       <c r="F79" s="30"/>
@@ -5582,10 +5583,10 @@
         <v>60</v>
       </c>
       <c r="K79" s="36" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L79" s="33" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="M79" s="34"/>
       <c r="N79" s="34"/>
@@ -5594,16 +5595,16 @@
     </row>
     <row r="80" spans="1:16">
       <c r="A80" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="B80" s="38" t="s">
         <v>202</v>
       </c>
-      <c r="B80" s="38" t="s">
-        <v>204</v>
-      </c>
       <c r="C80" s="38" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D80" s="43" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E80" s="27"/>
       <c r="F80" s="30"/>
@@ -5621,10 +5622,10 @@
         <v>125</v>
       </c>
       <c r="K80" s="36" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L80" s="33" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="M80" s="40"/>
       <c r="N80" s="40"/>
@@ -5633,16 +5634,16 @@
     </row>
     <row r="81" spans="1:16">
       <c r="A81" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="B81" s="38" t="s">
         <v>202</v>
       </c>
-      <c r="B81" s="38" t="s">
-        <v>204</v>
-      </c>
       <c r="C81" s="43" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D81" s="43" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E81" s="27"/>
       <c r="F81" s="30"/>
@@ -5660,10 +5661,10 @@
         <v>25</v>
       </c>
       <c r="K81" s="32" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L81" s="33" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="M81" s="34"/>
       <c r="N81" s="34"/>
@@ -5675,13 +5676,13 @@
         <v>44</v>
       </c>
       <c r="B82" s="38" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C82" s="38" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D82" s="38" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E82" s="27">
         <v>350</v>
@@ -5701,10 +5702,10 @@
         <v>10</v>
       </c>
       <c r="K82" s="36" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="L82" s="33" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M82" s="40"/>
       <c r="N82" s="40"/>
@@ -5713,16 +5714,16 @@
     </row>
     <row r="83" spans="1:16">
       <c r="A83" s="26" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B83" s="38" t="s">
         <v>24</v>
       </c>
       <c r="C83" s="38" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D83" s="38" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E83" s="27">
         <v>400</v>
@@ -5742,10 +5743,10 @@
         <v>24</v>
       </c>
       <c r="K83" s="36" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="L83" s="33" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M83" s="34"/>
       <c r="N83" s="34"/>
@@ -5754,16 +5755,16 @@
     </row>
     <row r="84" spans="1:16">
       <c r="A84" s="26" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B84" s="38" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C84" s="38" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D84" s="38" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E84" s="27"/>
       <c r="F84" s="30"/>
@@ -5782,10 +5783,10 @@
         <v>2.2799999999999998</v>
       </c>
       <c r="K84" s="36" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L84" s="33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M84" s="40">
         <v>7991</v>
@@ -5798,16 +5799,16 @@
     </row>
     <row r="85" spans="1:16">
       <c r="A85" s="26" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B85" s="38" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C85" s="38" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D85" s="38" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E85" s="27"/>
       <c r="F85" s="30"/>
@@ -5826,10 +5827,10 @@
         <v>4.51</v>
       </c>
       <c r="K85" s="36" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="L85" s="33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M85" s="34"/>
       <c r="N85" s="34">
@@ -5842,16 +5843,16 @@
     </row>
     <row r="86" spans="1:16">
       <c r="A86" s="26" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B86" s="38" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C86" s="38" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D86" s="38" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E86" s="27"/>
       <c r="F86" s="30"/>
@@ -5870,10 +5871,10 @@
         <v>0.49</v>
       </c>
       <c r="K86" s="36" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="L86" s="33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M86" s="40"/>
       <c r="N86" s="40">
@@ -5886,16 +5887,16 @@
     </row>
     <row r="87" spans="1:16">
       <c r="A87" s="26" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B87" s="38" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C87" s="38" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D87" s="38" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E87" s="27"/>
       <c r="F87" s="30"/>
@@ -5914,10 +5915,10 @@
         <v>0.99</v>
       </c>
       <c r="K87" s="32" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="L87" s="33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M87" s="34"/>
       <c r="N87" s="34">
@@ -5930,16 +5931,16 @@
     </row>
     <row r="88" spans="1:16">
       <c r="A88" s="26" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B88" s="38" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C88" s="38" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D88" s="38" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E88" s="27"/>
       <c r="F88" s="30"/>
@@ -5958,10 +5959,10 @@
         <v>5.01</v>
       </c>
       <c r="K88" s="36" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L88" s="33" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M88" s="40"/>
       <c r="N88" s="40">
@@ -5974,16 +5975,16 @@
     </row>
     <row r="89" spans="1:16">
       <c r="A89" s="26" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B89" s="38" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C89" s="38" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D89" s="38" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E89" s="27"/>
       <c r="F89" s="30"/>
@@ -6002,10 +6003,10 @@
         <v>13.5</v>
       </c>
       <c r="K89" s="32" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="L89" s="33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M89" s="34"/>
       <c r="N89" s="34"/>
@@ -6014,16 +6015,16 @@
     </row>
     <row r="90" spans="1:16">
       <c r="A90" s="26" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B90" s="38" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C90" s="38" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D90" s="38" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E90" s="27"/>
       <c r="F90" s="30"/>
@@ -6042,10 +6043,10 @@
         <v>3.62</v>
       </c>
       <c r="K90" s="36" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="L90" s="33" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M90" s="40"/>
       <c r="N90" s="40"/>
@@ -6054,16 +6055,16 @@
     </row>
     <row r="91" spans="1:16">
       <c r="A91" s="26" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B91" s="38" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C91" s="38" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D91" s="38" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E91" s="27"/>
       <c r="F91" s="30"/>
@@ -6081,10 +6082,10 @@
         <v>3</v>
       </c>
       <c r="K91" s="36" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L91" s="33" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M91" s="34"/>
       <c r="N91" s="34"/>
@@ -6093,16 +6094,16 @@
     </row>
     <row r="92" spans="1:16">
       <c r="A92" s="26" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B92" s="38" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C92" s="38" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D92" s="38" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E92" s="27"/>
       <c r="F92" s="30"/>
@@ -6121,10 +6122,10 @@
         <v>4.7799999999999994</v>
       </c>
       <c r="K92" s="36" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="L92" s="33" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="M92" s="40"/>
       <c r="N92" s="40"/>
@@ -6135,16 +6136,16 @@
     </row>
     <row r="93" spans="1:16">
       <c r="A93" s="26" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B93" s="38" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C93" s="38" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D93" s="38" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E93" s="27"/>
       <c r="F93" s="30"/>
@@ -6162,10 +6163,10 @@
         <v>2</v>
       </c>
       <c r="K93" s="32" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="L93" s="33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M93" s="34">
         <v>7991</v>
@@ -6178,16 +6179,16 @@
     </row>
     <row r="94" spans="1:16">
       <c r="A94" s="26" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B94" s="38" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C94" s="38" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D94" s="38" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E94" s="27"/>
       <c r="F94" s="30"/>
@@ -6206,10 +6207,10 @@
         <v>2.5</v>
       </c>
       <c r="K94" s="36" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L94" s="33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M94" s="40">
         <v>7991</v>
@@ -6222,16 +6223,16 @@
     </row>
     <row r="95" spans="1:16">
       <c r="A95" s="26" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B95" s="38" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C95" s="38" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D95" s="38" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E95" s="27"/>
       <c r="F95" s="30"/>
@@ -6250,10 +6251,10 @@
         <v>4.3099999999999996</v>
       </c>
       <c r="K95" s="32" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="L95" s="33" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="M95" s="34"/>
       <c r="N95" s="34"/>
@@ -6262,16 +6263,16 @@
     </row>
     <row r="96" spans="1:16">
       <c r="A96" s="26" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B96" s="38" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C96" s="38" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D96" s="38" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E96" s="27"/>
       <c r="F96" s="30"/>
@@ -6290,10 +6291,10 @@
         <v>1.72</v>
       </c>
       <c r="K96" s="36" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="L96" s="33" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M96" s="40"/>
       <c r="N96" s="40"/>
@@ -6302,16 +6303,16 @@
     </row>
     <row r="97" spans="1:26">
       <c r="A97" s="26" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B97" s="38" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C97" s="38" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D97" s="38" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E97" s="27"/>
       <c r="F97" s="30"/>
@@ -6330,10 +6331,10 @@
         <v>2.44</v>
       </c>
       <c r="K97" s="36" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="L97" s="33" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M97" s="34"/>
       <c r="N97" s="34"/>
@@ -6344,16 +6345,16 @@
     </row>
     <row r="98" spans="1:26">
       <c r="A98" s="26" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B98" s="38" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C98" s="38" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D98" s="38" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E98" s="27"/>
       <c r="F98" s="30"/>
@@ -6372,10 +6373,10 @@
         <v>2.38</v>
       </c>
       <c r="K98" s="36" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="L98" s="33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M98" s="40"/>
       <c r="N98" s="40"/>
@@ -6386,16 +6387,16 @@
     </row>
     <row r="99" spans="1:26">
       <c r="A99" s="26" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B99" s="38" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C99" s="38" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D99" s="38" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E99" s="27"/>
       <c r="F99" s="30"/>
@@ -6414,10 +6415,10 @@
         <v>3.27</v>
       </c>
       <c r="K99" s="32" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="L99" s="33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M99" s="34"/>
       <c r="N99" s="34"/>
@@ -6428,16 +6429,16 @@
     </row>
     <row r="100" spans="1:26">
       <c r="A100" s="26" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B100" s="38" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C100" s="38" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D100" s="38" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E100" s="27"/>
       <c r="F100" s="30"/>
@@ -6456,10 +6457,10 @@
         <v>2.57</v>
       </c>
       <c r="K100" s="36" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L100" s="33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M100" s="40"/>
       <c r="N100" s="40"/>
@@ -6470,16 +6471,16 @@
     </row>
     <row r="101" spans="1:26">
       <c r="A101" s="26" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B101" s="38" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C101" s="38" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D101" s="38" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E101" s="27"/>
       <c r="F101" s="30"/>
@@ -6498,10 +6499,10 @@
         <v>2.75</v>
       </c>
       <c r="K101" s="32" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="L101" s="33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M101" s="34">
         <v>912</v>
@@ -6514,16 +6515,16 @@
     </row>
     <row r="102" spans="1:26">
       <c r="A102" s="26" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B102" s="38" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C102" s="38" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D102" s="38" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E102" s="27"/>
       <c r="F102" s="30"/>
@@ -6542,10 +6543,10 @@
         <v>1.75</v>
       </c>
       <c r="K102" s="36" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L102" s="33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M102" s="40"/>
       <c r="N102" s="40">
@@ -6558,16 +6559,16 @@
     </row>
     <row r="103" spans="1:26">
       <c r="A103" s="26" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B103" s="38" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C103" s="38" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D103" s="38" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E103" s="27"/>
       <c r="F103" s="30"/>
@@ -6585,10 +6586,10 @@
         <v>12</v>
       </c>
       <c r="K103" s="36" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="L103" s="33" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="M103" s="34"/>
       <c r="N103" s="34"/>
@@ -6599,16 +6600,16 @@
     </row>
     <row r="104" spans="1:26">
       <c r="A104" s="26" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B104" s="38" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C104" s="38" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D104" s="38" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E104" s="27"/>
       <c r="F104" s="30"/>
@@ -6626,10 +6627,10 @@
         <v>12</v>
       </c>
       <c r="K104" s="36" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="L104" s="33" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="M104" s="40"/>
       <c r="N104" s="40"/>
@@ -6638,16 +6639,16 @@
     </row>
     <row r="105" spans="1:26">
       <c r="A105" s="26" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B105" s="38" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C105" s="38" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D105" s="38" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E105" s="27"/>
       <c r="F105" s="30"/>
@@ -6666,10 +6667,10 @@
         <v>3.96</v>
       </c>
       <c r="K105" s="32" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="L105" s="33" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="M105" s="40"/>
       <c r="N105" s="40"/>
@@ -6680,16 +6681,16 @@
     </row>
     <row r="106" spans="1:26" s="4" customFormat="1">
       <c r="A106" s="26" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B106" s="38" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C106" s="38" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D106" s="38" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E106" s="27"/>
       <c r="F106" s="30"/>
@@ -6707,10 +6708,10 @@
         <v>4.5</v>
       </c>
       <c r="K106" s="36" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="L106" s="33" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M106" s="40"/>
       <c r="N106" s="40"/>
@@ -6719,16 +6720,16 @@
     </row>
     <row r="107" spans="1:26">
       <c r="A107" s="26" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B107" s="38" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C107" s="38" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D107" s="38" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E107" s="27"/>
       <c r="F107" s="30"/>
@@ -6746,30 +6747,30 @@
         <v>0</v>
       </c>
       <c r="K107" s="32" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="L107" s="33" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="M107" s="34"/>
       <c r="N107" s="34"/>
       <c r="O107" s="59"/>
       <c r="P107" s="46" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="108" spans="1:26">
       <c r="A108" s="26" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B108" s="38" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C108" s="38" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D108" s="38" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E108" s="27"/>
       <c r="F108" s="30"/>
@@ -6787,30 +6788,30 @@
         <v>4</v>
       </c>
       <c r="K108" s="36" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="L108" s="33" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="M108" s="34"/>
       <c r="N108" s="34"/>
       <c r="O108" s="59"/>
       <c r="P108" s="46" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="109" spans="1:26">
       <c r="A109" s="26" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B109" s="38" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C109" s="38" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D109" s="38" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E109" s="27"/>
       <c r="F109" s="30"/>
@@ -6829,30 +6830,30 @@
         <v>0.87</v>
       </c>
       <c r="K109" s="36" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="L109" s="33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M109" s="34"/>
       <c r="N109" s="34"/>
       <c r="O109" s="60"/>
       <c r="P109" s="47" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="110" spans="1:26" s="4" customFormat="1">
       <c r="A110" s="26" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B110" s="38" t="s">
+        <v>292</v>
+      </c>
+      <c r="C110" s="38" t="s">
+        <v>293</v>
+      </c>
+      <c r="D110" s="38" t="s">
         <v>294</v>
-      </c>
-      <c r="C110" s="38" t="s">
-        <v>295</v>
-      </c>
-      <c r="D110" s="38" t="s">
-        <v>296</v>
       </c>
       <c r="E110" s="27"/>
       <c r="F110" s="30"/>
@@ -6870,10 +6871,10 @@
         <v>21.5</v>
       </c>
       <c r="K110" s="36" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="L110" s="33" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="M110" s="34"/>
       <c r="N110" s="34"/>
@@ -6904,7 +6905,7 @@
         <v>5</v>
       </c>
       <c r="C112" s="17" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D112" s="17" t="s">
         <v>6</v>
@@ -6916,7 +6917,7 @@
       <c r="I112" s="18"/>
       <c r="J112" s="64">
         <f>SUM(J19:J111)</f>
-        <v>1870.85</v>
+        <v>1880.85</v>
       </c>
       <c r="K112" s="17"/>
       <c r="L112" s="19"/>
@@ -6949,7 +6950,7 @@
     <hyperlink ref="K19" r:id="rId7" display="Ask for Precision Cut Frame Bundle" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
     <hyperlink ref="K20" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
     <hyperlink ref="K21" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="K22" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="K22" r:id="rId10" display="Size: 310x310mm" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
     <hyperlink ref="K23" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
     <hyperlink ref="K24" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
     <hyperlink ref="K25" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
